--- a/RawData/Easements and Frontage.xlsx
+++ b/RawData/Easements and Frontage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richb/github/TaxFairness/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F0814B-E014-E844-A99E-8B5316F2E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43948573-AB75-4140-896D-410BDD61D5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{DAB30BB8-6B0D-A447-8546-D56B906F88AE}"/>
+    <workbookView xWindow="15280" yWindow="600" windowWidth="14100" windowHeight="17440" xr2:uid="{DAB30BB8-6B0D-A447-8546-D56B906F88AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1266">
   <si>
     <t>EF_PID</t>
   </si>
@@ -850,9 +850,6 @@
     <t>85 DARTMOUTH COLLEGE HY #1010</t>
   </si>
   <si>
-    <t>85 DCH</t>
-  </si>
-  <si>
     <t>85 DARTMOUTH COLLEGE HY #1020</t>
   </si>
   <si>
@@ -3833,6 +3830,9 @@
   </si>
   <si>
     <t>345 GRAFTON TK</t>
+  </si>
+  <si>
+    <t>85 DCH - assigned CE to bldg 101</t>
   </si>
 </sst>
 </file>
@@ -4214,9 +4214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743EB383-1684-8B4B-A694-40AA6FFA8399}">
   <dimension ref="A1:R1307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R218" sqref="R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11672,9 +11672,7 @@
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
-      <c r="I213" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="I213" s="2"/>
       <c r="J213" s="2" t="s">
         <v>92</v>
       </c>
@@ -11856,9 +11854,7 @@
       </c>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
-      <c r="I218" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="I218" s="2"/>
       <c r="J218" s="2" t="s">
         <v>92</v>
       </c>
@@ -11873,7 +11869,7 @@
       </c>
       <c r="P218" s="2"/>
       <c r="Q218" s="2" t="s">
-        <v>271</v>
+        <v>1265</v>
       </c>
       <c r="R218" s="3">
         <v>45445</v>
@@ -11904,7 +11900,7 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -11938,7 +11934,7 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -11972,7 +11968,7 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -12006,7 +12002,7 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -12040,7 +12036,7 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
@@ -12074,7 +12070,7 @@
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -12108,7 +12104,7 @@
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -12142,7 +12138,7 @@
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
@@ -12176,7 +12172,7 @@
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
@@ -12210,7 +12206,7 @@
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -12244,7 +12240,7 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -12278,7 +12274,7 @@
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -12312,7 +12308,7 @@
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
@@ -12346,7 +12342,7 @@
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
@@ -12380,7 +12376,7 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -12414,7 +12410,7 @@
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -12448,7 +12444,7 @@
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
@@ -12482,7 +12478,7 @@
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
@@ -12516,7 +12512,7 @@
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -12550,7 +12546,7 @@
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -12584,7 +12580,7 @@
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
@@ -12620,7 +12616,7 @@
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O240" s="2">
         <v>1625</v>
@@ -12629,7 +12625,7 @@
         <v>214</v>
       </c>
       <c r="Q240" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R240" s="3">
         <v>45445</v>
@@ -12658,7 +12654,7 @@
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O241" s="2">
         <v>98.76</v>
@@ -12692,7 +12688,7 @@
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O242" s="2">
         <v>221.4</v>
@@ -12726,7 +12722,7 @@
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O243" s="2">
         <v>671.7</v>
@@ -12760,7 +12756,7 @@
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O244" s="2">
         <v>276.89999999999998</v>
@@ -12794,7 +12790,7 @@
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O245" s="2">
         <v>291.60000000000002</v>
@@ -12830,14 +12826,14 @@
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O246" s="2">
         <v>336.18</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R246" s="3">
         <v>45445</v>
@@ -12866,14 +12862,14 @@
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O247" s="2">
         <v>0</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R247" s="3">
         <v>45445</v>
@@ -12902,7 +12898,7 @@
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O248" s="2">
         <v>684.97</v>
@@ -12936,7 +12932,7 @@
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O249" s="2">
         <v>260.60000000000002</v>
@@ -12970,7 +12966,7 @@
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O250" s="2">
         <v>341.8</v>
@@ -13006,7 +13002,7 @@
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O251" s="2">
         <v>801.9</v>
@@ -13040,7 +13036,7 @@
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O252" s="2">
         <v>810.7</v>
@@ -13074,7 +13070,7 @@
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O253" s="2">
         <v>250.5</v>
@@ -13108,7 +13104,7 @@
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O254" s="2">
         <v>2080.6999999999998</v>
@@ -13142,14 +13138,14 @@
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O255" s="2">
         <v>4910</v>
       </c>
       <c r="P255" s="2"/>
       <c r="Q255" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R255" s="3">
         <v>45445</v>
@@ -13183,7 +13179,7 @@
       </c>
       <c r="P256" s="2"/>
       <c r="Q256" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R256" s="3">
         <v>45445</v>
@@ -13246,7 +13242,7 @@
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O258" s="2">
         <v>352</v>
@@ -13280,7 +13276,7 @@
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O259" s="2">
         <v>380</v>
@@ -13344,7 +13340,7 @@
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O261" s="2">
         <v>783</v>
@@ -13382,7 +13378,7 @@
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O262" s="2">
         <v>610</v>
@@ -13416,14 +13412,14 @@
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O263" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="O263" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="P263" s="2"/>
       <c r="Q263" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R263" s="3">
         <v>45445</v>
@@ -13454,7 +13450,7 @@
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O264" s="2">
         <v>1400</v>
@@ -13490,7 +13486,7 @@
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O265" s="2">
         <v>553.28</v>
@@ -13552,7 +13548,7 @@
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O267" s="2">
         <v>1430</v>
@@ -13588,7 +13584,7 @@
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O268" s="2">
         <v>69</v>
@@ -13624,12 +13620,12 @@
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R269" s="3">
         <v>45445</v>
@@ -13658,7 +13654,7 @@
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O270" s="2">
         <v>95</v>
@@ -13694,7 +13690,7 @@
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O271" s="2">
         <v>165</v>
@@ -13730,7 +13726,7 @@
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O272" s="2">
         <v>275</v>
@@ -13764,7 +13760,7 @@
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O273" s="2">
         <v>130</v>
@@ -13798,7 +13794,7 @@
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O274" s="2">
         <v>445</v>
@@ -13862,7 +13858,7 @@
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O276" s="2">
         <v>710</v>
@@ -13901,7 +13897,7 @@
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
       <c r="Q277" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R277" s="3">
         <v>45445</v>
@@ -13964,7 +13960,7 @@
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O279" s="2">
         <v>360</v>
@@ -14000,7 +13996,7 @@
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O280" s="2">
         <v>510.71</v>
@@ -14038,7 +14034,7 @@
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O281" s="2">
         <v>73</v>
@@ -14072,7 +14068,7 @@
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O282" s="2">
         <v>243.6</v>
@@ -14108,7 +14104,7 @@
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O283" s="2">
         <v>1246.8</v>
@@ -14144,7 +14140,7 @@
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O284" s="2">
         <v>598.08000000000004</v>
@@ -14180,7 +14176,7 @@
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O285" s="2">
         <v>333.42</v>
@@ -14214,7 +14210,7 @@
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O286" s="2">
         <v>1303.9000000000001</v>
@@ -14276,7 +14272,7 @@
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O288" s="2">
         <v>1049.9000000000001</v>
@@ -14342,7 +14338,7 @@
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O290" s="2">
         <v>399.6</v>
@@ -14376,7 +14372,7 @@
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O291" s="2">
         <v>599.9</v>
@@ -14410,7 +14406,7 @@
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O292" s="2">
         <v>200</v>
@@ -14446,7 +14442,7 @@
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O293" s="2">
         <v>363</v>
@@ -14482,7 +14478,7 @@
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O294" s="2">
         <v>1200</v>
@@ -14516,7 +14512,7 @@
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O295" s="2">
         <v>290</v>
@@ -14550,7 +14546,7 @@
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O296" s="2">
         <v>1565</v>
@@ -14584,7 +14580,7 @@
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O297" s="2">
         <v>417</v>
@@ -14618,7 +14614,7 @@
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O298" s="2">
         <v>246</v>
@@ -14652,7 +14648,7 @@
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O299" s="2">
         <v>600</v>
@@ -14688,7 +14684,7 @@
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O300" s="2">
         <v>301</v>
@@ -14722,7 +14718,7 @@
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O301" s="2">
         <v>440</v>
@@ -14756,7 +14752,7 @@
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O302" s="2">
         <v>490</v>
@@ -14790,7 +14786,7 @@
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O303" s="2">
         <v>160</v>
@@ -14824,7 +14820,7 @@
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O304" s="2">
         <v>721.7</v>
@@ -14858,7 +14854,7 @@
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O305" s="2">
         <v>190</v>
@@ -14894,7 +14890,7 @@
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O306" s="2">
         <v>413.3</v>
@@ -14958,7 +14954,7 @@
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O308" s="2">
         <v>550</v>
@@ -14967,7 +14963,7 @@
         <v>214</v>
       </c>
       <c r="Q308" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R308" s="3">
         <v>45445</v>
@@ -14996,7 +14992,7 @@
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O309" s="2">
         <v>1140</v>
@@ -15030,7 +15026,7 @@
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O310" s="2">
         <v>567</v>
@@ -15064,7 +15060,7 @@
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O311" s="2">
         <v>433.45</v>
@@ -15098,7 +15094,7 @@
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O312" s="2">
         <v>309</v>
@@ -15132,7 +15128,7 @@
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O313" s="2">
         <v>900</v>
@@ -15168,7 +15164,7 @@
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O314" s="2">
         <v>136</v>
@@ -15202,7 +15198,7 @@
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O315" s="2">
         <v>570</v>
@@ -15236,7 +15232,7 @@
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O316" s="2">
         <v>155</v>
@@ -15272,7 +15268,7 @@
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O317" s="2">
         <v>121.5</v>
@@ -15306,7 +15302,7 @@
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O318" s="2">
         <v>1110</v>
@@ -15342,7 +15338,7 @@
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O319" s="2">
         <v>186.17</v>
@@ -15378,7 +15374,7 @@
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O320" s="2">
         <v>256.58</v>
@@ -15412,7 +15408,7 @@
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O321" s="2">
         <v>1610</v>
@@ -15448,7 +15444,7 @@
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O322" s="2">
         <v>300</v>
@@ -15482,14 +15478,14 @@
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O323" s="2">
         <v>0</v>
       </c>
       <c r="P323" s="2"/>
       <c r="Q323" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R323" s="3">
         <v>45445</v>
@@ -15518,7 +15514,7 @@
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O324" s="2">
         <v>633.23</v>
@@ -15552,7 +15548,7 @@
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O325" s="2">
         <v>400</v>
@@ -15588,7 +15584,7 @@
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O326" s="2">
         <v>179.3</v>
@@ -15650,7 +15646,7 @@
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O328" s="2">
         <v>549.6</v>
@@ -15684,7 +15680,7 @@
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O329" s="2">
         <v>65</v>
@@ -15718,7 +15714,7 @@
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O330" s="2">
         <v>270</v>
@@ -15752,7 +15748,7 @@
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O331" s="2">
         <v>335</v>
@@ -15786,7 +15782,7 @@
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O332" s="2">
         <v>1420</v>
@@ -15858,7 +15854,7 @@
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O334" s="2">
         <v>205</v>
@@ -15894,7 +15890,7 @@
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O335" s="2">
         <v>75</v>
@@ -15930,14 +15926,14 @@
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O336" s="2">
         <v>125</v>
       </c>
       <c r="P336" s="2"/>
       <c r="Q336" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R336" s="3">
         <v>45445</v>
@@ -16022,7 +16018,7 @@
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O339" s="2">
         <v>175</v>
@@ -16060,7 +16056,7 @@
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O340" s="2">
         <v>741.9</v>
@@ -16096,7 +16092,7 @@
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O341" s="2">
         <v>829.4</v>
@@ -16130,7 +16126,7 @@
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O342" s="2">
         <v>225</v>
@@ -16166,7 +16162,7 @@
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O343" s="2">
         <v>525</v>
@@ -16202,14 +16198,14 @@
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O344" s="2">
         <v>0</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R344" s="3">
         <v>45445</v>
@@ -16238,14 +16234,14 @@
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O345" s="2">
         <v>490.4</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R345" s="3">
         <v>45445</v>
@@ -16302,7 +16298,7 @@
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O347" s="2">
         <v>694.4</v>
@@ -16336,7 +16332,7 @@
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O348" s="2">
         <v>1299</v>
@@ -16370,7 +16366,7 @@
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O349" s="2">
         <v>1808.4</v>
@@ -16404,7 +16400,7 @@
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O350" s="2">
         <v>269.83</v>
@@ -16438,7 +16434,7 @@
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O351" s="2">
         <v>400</v>
@@ -16472,7 +16468,7 @@
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O352" s="2">
         <v>347</v>
@@ -16506,7 +16502,7 @@
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O353" s="2">
         <v>372</v>
@@ -16540,7 +16536,7 @@
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O354" s="2">
         <v>198</v>
@@ -16576,7 +16572,7 @@
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O355" s="2">
         <v>1236.97</v>
@@ -16612,7 +16608,7 @@
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O356" s="2">
         <v>560</v>
@@ -16646,7 +16642,7 @@
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O357" s="2">
         <v>260</v>
@@ -16682,7 +16678,7 @@
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O358" s="2">
         <v>250</v>
@@ -16722,14 +16718,14 @@
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O359" s="2">
         <v>350</v>
       </c>
       <c r="P359" s="2"/>
       <c r="Q359" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R359" s="3">
         <v>45445</v>
@@ -16758,7 +16754,7 @@
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O360" s="2">
         <v>295</v>
@@ -16792,7 +16788,7 @@
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O361" s="2">
         <v>264.5</v>
@@ -16826,7 +16822,7 @@
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O362" s="2">
         <v>259.75</v>
@@ -16860,7 +16856,7 @@
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O363" s="2">
         <v>100</v>
@@ -16894,7 +16890,7 @@
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O364" s="2">
         <v>286.60000000000002</v>
@@ -16956,7 +16952,7 @@
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O366" s="2">
         <v>200</v>
@@ -16990,7 +16986,7 @@
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O367" s="2">
         <v>356.02</v>
@@ -17080,7 +17076,7 @@
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O370" s="2">
         <v>461.65</v>
@@ -17114,7 +17110,7 @@
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O371" s="2">
         <v>500</v>
@@ -17148,7 +17144,7 @@
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O372" s="2">
         <v>320</v>
@@ -17184,7 +17180,7 @@
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O373" s="2">
         <v>4200</v>
@@ -17220,7 +17216,7 @@
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O374" s="2">
         <v>660</v>
@@ -17256,7 +17252,7 @@
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O375" s="2">
         <v>577.12</v>
@@ -17318,7 +17314,7 @@
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O377" s="2">
         <v>200</v>
@@ -17357,7 +17353,7 @@
       <c r="O378" s="2"/>
       <c r="P378" s="2"/>
       <c r="Q378" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R378" s="3">
         <v>45446</v>
@@ -17386,7 +17382,7 @@
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O379" s="2">
         <v>1425</v>
@@ -17420,7 +17416,7 @@
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O380" s="2">
         <v>132</v>
@@ -17484,14 +17480,14 @@
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O382" s="2">
         <v>1646.7</v>
       </c>
       <c r="P382" s="2"/>
       <c r="Q382" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R382" s="3">
         <v>45446</v>
@@ -17520,7 +17516,7 @@
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O383" s="2">
         <v>1400</v>
@@ -17554,7 +17550,7 @@
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O384" s="2">
         <v>459.2</v>
@@ -17588,7 +17584,7 @@
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O385" s="2">
         <v>625</v>
@@ -17622,7 +17618,7 @@
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O386" s="2">
         <v>441.8</v>
@@ -17663,7 +17659,7 @@
       </c>
       <c r="P387" s="2"/>
       <c r="Q387" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R387" s="3">
         <v>45446</v>
@@ -17726,7 +17722,7 @@
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O389" s="2">
         <v>108</v>
@@ -17760,7 +17756,7 @@
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O390" s="2">
         <v>116</v>
@@ -17794,7 +17790,7 @@
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O391" s="2">
         <v>174</v>
@@ -17828,7 +17824,7 @@
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O392" s="2">
         <v>116.9</v>
@@ -17862,7 +17858,7 @@
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O393" s="2">
         <v>220</v>
@@ -17896,7 +17892,7 @@
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O394" s="2">
         <v>356</v>
@@ -17930,7 +17926,7 @@
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O395" s="2">
         <v>198</v>
@@ -17964,7 +17960,7 @@
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O396" s="2">
         <v>105</v>
@@ -17998,7 +17994,7 @@
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O397" s="2">
         <v>120</v>
@@ -18034,7 +18030,7 @@
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O398" s="2">
         <v>440</v>
@@ -18068,7 +18064,7 @@
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O399" s="2">
         <v>300</v>
@@ -18142,7 +18138,7 @@
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O401" s="2">
         <v>3285</v>
@@ -18210,7 +18206,7 @@
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O403" s="2">
         <v>2540</v>
@@ -18246,7 +18242,7 @@
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O404" s="2">
         <v>944.57</v>
@@ -18280,7 +18276,7 @@
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O405" s="2">
         <v>404.3</v>
@@ -18314,7 +18310,7 @@
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O406" s="2">
         <v>675</v>
@@ -18384,7 +18380,7 @@
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O408" s="2">
         <v>1370</v>
@@ -18393,7 +18389,7 @@
         <v>214</v>
       </c>
       <c r="Q408" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R408" s="3">
         <v>45446</v>
@@ -18450,7 +18446,7 @@
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O410" s="2">
         <v>370</v>
@@ -18489,7 +18485,7 @@
       </c>
       <c r="P411" s="2"/>
       <c r="Q411" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R411" s="3">
         <v>45446</v>
@@ -18520,7 +18516,7 @@
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O412" s="2">
         <v>111</v>
@@ -18626,14 +18622,14 @@
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O415" s="2">
         <v>1136.3</v>
       </c>
       <c r="P415" s="2"/>
       <c r="Q415" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R415" s="3">
         <v>45446</v>
@@ -18662,7 +18658,7 @@
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O416" s="2">
         <v>440</v>
@@ -18696,7 +18692,7 @@
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O417" s="2">
         <v>422.2</v>
@@ -18730,7 +18726,7 @@
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O418" s="2">
         <v>1160</v>
@@ -18764,7 +18760,7 @@
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O419" s="2">
         <v>807</v>
@@ -18798,7 +18794,7 @@
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O420" s="2">
         <v>1000</v>
@@ -18834,7 +18830,7 @@
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O421" s="2">
         <v>685.86</v>
@@ -18870,7 +18866,7 @@
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O422" s="2">
         <v>520</v>
@@ -18906,14 +18902,14 @@
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
       <c r="N423" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O423" s="2">
         <v>891.7</v>
       </c>
       <c r="P423" s="2"/>
       <c r="Q423" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R423" s="3">
         <v>45446</v>
@@ -18998,14 +18994,14 @@
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O426" s="2">
         <v>0</v>
       </c>
       <c r="P426" s="2"/>
       <c r="Q426" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R426" s="3">
         <v>45446</v>
@@ -19036,14 +19032,14 @@
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O427" s="2">
         <v>157</v>
       </c>
       <c r="P427" s="2"/>
       <c r="Q427" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R427" s="3">
         <v>45446</v>
@@ -19074,14 +19070,14 @@
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O428" s="2">
         <v>763.21</v>
       </c>
       <c r="P428" s="2"/>
       <c r="Q428" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R428" s="3">
         <v>45446</v>
@@ -19110,7 +19106,7 @@
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
       <c r="N429" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O429" s="2">
         <v>966.9</v>
@@ -19144,7 +19140,7 @@
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
       <c r="N430" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O430" s="2">
         <v>1369</v>
@@ -19206,14 +19202,14 @@
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
       <c r="N432" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O432" s="2">
         <v>136.6</v>
       </c>
       <c r="P432" s="2"/>
       <c r="Q432" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R432" s="3">
         <v>45446</v>
@@ -19242,7 +19238,7 @@
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
       <c r="N433" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O433" s="2">
         <v>1320</v>
@@ -19278,7 +19274,7 @@
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
       <c r="N434" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O434" s="2">
         <v>880</v>
@@ -19340,7 +19336,7 @@
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
       <c r="N436" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O436" s="2">
         <v>1230</v>
@@ -19376,7 +19372,7 @@
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
       <c r="N437" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O437" s="2">
         <v>40</v>
@@ -19410,7 +19406,7 @@
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
       <c r="N438" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O438" s="2">
         <v>454</v>
@@ -19451,7 +19447,7 @@
       </c>
       <c r="P439" s="2"/>
       <c r="Q439" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R439" s="3">
         <v>45446</v>
@@ -19480,7 +19476,7 @@
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
       <c r="N440" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O440" s="2">
         <v>704.9</v>
@@ -19514,7 +19510,7 @@
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
       <c r="N441" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O441" s="2">
         <v>334.4</v>
@@ -19548,7 +19544,7 @@
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
       <c r="N442" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O442" s="2">
         <v>180</v>
@@ -19582,7 +19578,7 @@
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
       <c r="N443" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O443" s="2">
         <v>130</v>
@@ -19618,7 +19614,7 @@
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
       <c r="N444" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O444" s="2">
         <v>215</v>
@@ -19656,7 +19652,7 @@
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O445" s="2">
         <v>810</v>
@@ -19665,7 +19661,7 @@
         <v>214</v>
       </c>
       <c r="Q445" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R445" s="3">
         <v>45446</v>
@@ -19694,14 +19690,14 @@
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
       <c r="N446" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O446" s="2">
         <v>0</v>
       </c>
       <c r="P446" s="2"/>
       <c r="Q446" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R446" s="3">
         <v>45446</v>
@@ -19730,7 +19726,7 @@
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
       <c r="N447" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O447" s="2">
         <v>1600</v>
@@ -19766,7 +19762,7 @@
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
       <c r="N448" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O448" s="2">
         <v>2612</v>
@@ -19800,7 +19796,7 @@
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
       <c r="N449" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O449" s="2">
         <v>1360</v>
@@ -20004,7 +20000,7 @@
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O455" s="2">
         <v>160</v>
@@ -20146,7 +20142,7 @@
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
       <c r="N459" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O459" s="2">
         <v>1270</v>
@@ -20180,7 +20176,7 @@
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
       <c r="N460" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O460" s="2">
         <v>575</v>
@@ -20218,14 +20214,14 @@
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
       <c r="N461" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O461" s="2">
         <v>1965</v>
       </c>
       <c r="P461" s="2"/>
       <c r="Q461" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R461" s="3">
         <v>45446</v>
@@ -20282,7 +20278,7 @@
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
       <c r="N463" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O463" s="2">
         <v>209</v>
@@ -20318,7 +20314,7 @@
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
       <c r="N464" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O464" s="2">
         <v>881.3</v>
@@ -20352,14 +20348,14 @@
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O465" s="2">
         <v>0</v>
       </c>
       <c r="P465" s="2"/>
       <c r="Q465" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R465" s="3">
         <v>45446</v>
@@ -20388,7 +20384,7 @@
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
       <c r="N466" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O466" s="2">
         <v>330</v>
@@ -20424,7 +20420,7 @@
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
       <c r="N467" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O467" s="2">
         <v>200</v>
@@ -20460,7 +20456,7 @@
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
       <c r="N468" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O468" s="2">
         <v>326.89999999999998</v>
@@ -20494,7 +20490,7 @@
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
       <c r="N469" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O469" s="2">
         <v>313</v>
@@ -20556,7 +20552,7 @@
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
       <c r="N471" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O471" s="2">
         <v>790</v>
@@ -20592,7 +20588,7 @@
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
       <c r="N472" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O472" s="2">
         <v>629</v>
@@ -20626,7 +20622,7 @@
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
       <c r="N473" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O473" s="2">
         <v>435.5</v>
@@ -20660,7 +20656,7 @@
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
       <c r="N474" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O474" s="2">
         <v>445</v>
@@ -20696,7 +20692,7 @@
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
       <c r="N475" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O475" s="2">
         <v>277.2</v>
@@ -20730,7 +20726,7 @@
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
       <c r="N476" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O476" s="2">
         <v>300</v>
@@ -20766,7 +20762,7 @@
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
       <c r="N477" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O477" s="2">
         <v>311.36</v>
@@ -20802,7 +20798,7 @@
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
       <c r="N478" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O478" s="2">
         <v>628.32000000000005</v>
@@ -20841,7 +20837,7 @@
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
       <c r="Q479" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R479" s="3">
         <v>45446</v>
@@ -20870,7 +20866,7 @@
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
       <c r="N480" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O480" s="2">
         <v>435</v>
@@ -20904,14 +20900,14 @@
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
       <c r="N481" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O481" s="2">
         <v>0</v>
       </c>
       <c r="P481" s="2"/>
       <c r="Q481" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R481" s="3">
         <v>45446</v>
@@ -20940,14 +20936,14 @@
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
       <c r="N482" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O482" s="2">
         <v>0</v>
       </c>
       <c r="P482" s="2"/>
       <c r="Q482" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R482" s="3">
         <v>45461</v>
@@ -20978,7 +20974,7 @@
       <c r="L483" s="2"/>
       <c r="M483" s="2"/>
       <c r="N483" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O483" s="2">
         <v>1266.5</v>
@@ -21014,7 +21010,7 @@
       <c r="L484" s="2"/>
       <c r="M484" s="2"/>
       <c r="N484" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O484" s="2">
         <v>1270</v>
@@ -21048,14 +21044,14 @@
       <c r="L485" s="2"/>
       <c r="M485" s="2"/>
       <c r="N485" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O485" s="2">
         <v>0</v>
       </c>
       <c r="P485" s="2"/>
       <c r="Q485" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R485" s="3">
         <v>45461</v>
@@ -21086,7 +21082,7 @@
       <c r="L486" s="2"/>
       <c r="M486" s="2"/>
       <c r="N486" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O486" s="2">
         <v>675</v>
@@ -21156,7 +21152,7 @@
       <c r="L488" s="2"/>
       <c r="M488" s="2"/>
       <c r="N488" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O488" s="2">
         <v>570.52</v>
@@ -21190,7 +21186,7 @@
       <c r="L489" s="2"/>
       <c r="M489" s="2"/>
       <c r="N489" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O489" s="2">
         <v>452.82</v>
@@ -21226,7 +21222,7 @@
       <c r="L490" s="2"/>
       <c r="M490" s="2"/>
       <c r="N490" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O490" s="2">
         <v>929.7</v>
@@ -21292,7 +21288,7 @@
       <c r="L492" s="2"/>
       <c r="M492" s="2"/>
       <c r="N492" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O492" s="2">
         <v>1853.6</v>
@@ -21360,14 +21356,14 @@
       <c r="L494" s="2"/>
       <c r="M494" s="2"/>
       <c r="N494" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O494" s="2">
         <v>0</v>
       </c>
       <c r="P494" s="2"/>
       <c r="Q494" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R494" s="3">
         <v>45461</v>
@@ -21396,7 +21392,7 @@
       <c r="L495" s="2"/>
       <c r="M495" s="2"/>
       <c r="N495" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O495" s="2">
         <v>230.48</v>
@@ -21430,7 +21426,7 @@
       <c r="L496" s="2"/>
       <c r="M496" s="2"/>
       <c r="N496" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O496" s="2">
         <v>325</v>
@@ -21464,7 +21460,7 @@
       <c r="L497" s="2"/>
       <c r="M497" s="2"/>
       <c r="N497" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O497" s="2">
         <v>227.88</v>
@@ -21498,7 +21494,7 @@
       <c r="L498" s="2"/>
       <c r="M498" s="2"/>
       <c r="N498" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O498" s="2">
         <v>421.5</v>
@@ -21532,7 +21528,7 @@
       <c r="L499" s="2"/>
       <c r="M499" s="2"/>
       <c r="N499" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O499" s="2">
         <v>454.5</v>
@@ -21598,7 +21594,7 @@
       <c r="L501" s="2"/>
       <c r="M501" s="2"/>
       <c r="N501" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O501" s="2">
         <v>200</v>
@@ -21632,7 +21628,7 @@
       <c r="L502" s="2"/>
       <c r="M502" s="2"/>
       <c r="N502" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O502" s="2">
         <v>225</v>
@@ -21670,7 +21666,7 @@
       <c r="L503" s="2"/>
       <c r="M503" s="2"/>
       <c r="N503" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O503" s="2">
         <v>650</v>
@@ -21708,14 +21704,14 @@
       <c r="L504" s="2"/>
       <c r="M504" s="2"/>
       <c r="N504" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O504" s="2">
         <v>0</v>
       </c>
       <c r="P504" s="2"/>
       <c r="Q504" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R504" s="3">
         <v>45461</v>
@@ -21746,7 +21742,7 @@
       <c r="L505" s="2"/>
       <c r="M505" s="2"/>
       <c r="N505" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O505" s="2">
         <v>1480</v>
@@ -21780,7 +21776,7 @@
       <c r="L506" s="2"/>
       <c r="M506" s="2"/>
       <c r="N506" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O506" s="2">
         <v>570</v>
@@ -21816,7 +21812,7 @@
       <c r="L507" s="2"/>
       <c r="M507" s="2"/>
       <c r="N507" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O507" s="2">
         <v>40.799999999999997</v>
@@ -21852,7 +21848,7 @@
       <c r="L508" s="2"/>
       <c r="M508" s="2"/>
       <c r="N508" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O508" s="2">
         <v>425</v>
@@ -21888,7 +21884,7 @@
       <c r="L509" s="2"/>
       <c r="M509" s="2"/>
       <c r="N509" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O509" s="2">
         <v>459.3</v>
@@ -21922,7 +21918,7 @@
       <c r="L510" s="2"/>
       <c r="M510" s="2"/>
       <c r="N510" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O510" s="2">
         <v>580</v>
@@ -21956,7 +21952,7 @@
       <c r="L511" s="2"/>
       <c r="M511" s="2"/>
       <c r="N511" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O511" s="2">
         <v>1186</v>
@@ -21992,7 +21988,7 @@
       <c r="L512" s="2"/>
       <c r="M512" s="2"/>
       <c r="N512" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O512" s="2">
         <v>172.3</v>
@@ -22028,7 +22024,7 @@
       <c r="L513" s="2"/>
       <c r="M513" s="2"/>
       <c r="N513" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O513" s="2">
         <v>554.79999999999995</v>
@@ -22062,7 +22058,7 @@
       <c r="L514" s="2"/>
       <c r="M514" s="2"/>
       <c r="N514" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O514" s="2">
         <v>233.1</v>
@@ -22096,7 +22092,7 @@
       <c r="L515" s="2"/>
       <c r="M515" s="2"/>
       <c r="N515" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O515" s="2">
         <v>72</v>
@@ -22130,7 +22126,7 @@
       <c r="L516" s="2"/>
       <c r="M516" s="2"/>
       <c r="N516" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O516" s="2">
         <v>1750</v>
@@ -22194,7 +22190,7 @@
       <c r="L518" s="2"/>
       <c r="M518" s="2"/>
       <c r="N518" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O518" s="2">
         <v>1058.21</v>
@@ -22230,7 +22226,7 @@
       <c r="L519" s="2"/>
       <c r="M519" s="2"/>
       <c r="N519" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O519" s="2">
         <v>1242.42</v>
@@ -22302,7 +22298,7 @@
       <c r="L521" s="2"/>
       <c r="M521" s="2"/>
       <c r="N521" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O521" s="2">
         <v>673.9</v>
@@ -22340,7 +22336,7 @@
       <c r="L522" s="2"/>
       <c r="M522" s="2"/>
       <c r="N522" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O522" s="2">
         <v>126.1</v>
@@ -22376,7 +22372,7 @@
       <c r="L523" s="2"/>
       <c r="M523" s="2"/>
       <c r="N523" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O523" s="2">
         <v>846.1</v>
@@ -22412,14 +22408,14 @@
       <c r="L524" s="2"/>
       <c r="M524" s="2"/>
       <c r="N524" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O524" s="2">
         <v>0</v>
       </c>
       <c r="P524" s="2"/>
       <c r="Q524" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R524" s="3">
         <v>45461</v>
@@ -22480,14 +22476,14 @@
       <c r="L526" s="2"/>
       <c r="M526" s="2"/>
       <c r="N526" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O526" s="2">
         <v>429.65</v>
       </c>
       <c r="P526" s="2"/>
       <c r="Q526" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R526" s="3">
         <v>45461</v>
@@ -22520,14 +22516,14 @@
       <c r="L527" s="2"/>
       <c r="M527" s="2"/>
       <c r="N527" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O527" s="2">
         <v>0</v>
       </c>
       <c r="P527" s="2"/>
       <c r="Q527" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R527" s="3">
         <v>45461</v>
@@ -22594,7 +22590,7 @@
       <c r="L529" s="2"/>
       <c r="M529" s="2"/>
       <c r="N529" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O529" s="2">
         <v>1028.9100000000001</v>
@@ -22632,7 +22628,7 @@
       <c r="L530" s="2"/>
       <c r="M530" s="2"/>
       <c r="N530" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O530" s="2">
         <v>697.6</v>
@@ -22670,14 +22666,14 @@
       <c r="L531" s="2"/>
       <c r="M531" s="2"/>
       <c r="N531" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O531" s="2">
         <v>536.54999999999995</v>
       </c>
       <c r="P531" s="2"/>
       <c r="Q531" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R531" s="3">
         <v>45461</v>
@@ -22708,7 +22704,7 @@
       <c r="L532" s="2"/>
       <c r="M532" s="2"/>
       <c r="N532" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O532" s="2">
         <v>544.5</v>
@@ -22744,7 +22740,7 @@
       <c r="L533" s="2"/>
       <c r="M533" s="2"/>
       <c r="N533" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O533" s="2">
         <v>556.79999999999995</v>
@@ -22780,14 +22776,14 @@
       <c r="L534" s="2"/>
       <c r="M534" s="2"/>
       <c r="N534" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O534" s="2">
         <v>0</v>
       </c>
       <c r="P534" s="2"/>
       <c r="Q534" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R534" s="3">
         <v>45461</v>
@@ -22818,7 +22814,7 @@
       <c r="L535" s="2"/>
       <c r="M535" s="2"/>
       <c r="N535" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O535" s="2">
         <v>289.3</v>
@@ -22852,7 +22848,7 @@
       <c r="L536" s="2"/>
       <c r="M536" s="2"/>
       <c r="N536" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O536" s="2">
         <v>784.63</v>
@@ -22886,12 +22882,12 @@
       <c r="L537" s="2"/>
       <c r="M537" s="2"/>
       <c r="N537" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
       <c r="Q537" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R537" s="3">
         <v>45461</v>
@@ -22922,7 +22918,7 @@
       <c r="L538" s="2"/>
       <c r="M538" s="2"/>
       <c r="N538" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O538" s="2">
         <v>725</v>
@@ -22931,7 +22927,7 @@
         <v>214</v>
       </c>
       <c r="Q538" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R538" s="3">
         <v>45445</v>
@@ -22969,7 +22965,7 @@
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R539" s="3">
         <v>45445</v>
@@ -22998,7 +22994,7 @@
       <c r="L540" s="2"/>
       <c r="M540" s="2"/>
       <c r="N540" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O540" s="2">
         <v>690</v>
@@ -23068,14 +23064,14 @@
       <c r="L542" s="2"/>
       <c r="M542" s="2"/>
       <c r="N542" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O542" s="2">
         <v>0</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R542" s="3">
         <v>45445</v>
@@ -23104,14 +23100,14 @@
       <c r="L543" s="2"/>
       <c r="M543" s="2"/>
       <c r="N543" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O543" s="2">
         <v>0</v>
       </c>
       <c r="P543" s="2"/>
       <c r="Q543" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R543" s="3">
         <v>45445</v>
@@ -23140,7 +23136,7 @@
       <c r="L544" s="2"/>
       <c r="M544" s="2"/>
       <c r="N544" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O544" s="2">
         <v>1000</v>
@@ -23210,7 +23206,7 @@
       <c r="L546" s="2"/>
       <c r="M546" s="2"/>
       <c r="N546" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O546" s="2">
         <v>260</v>
@@ -23246,7 +23242,7 @@
       <c r="L547" s="2"/>
       <c r="M547" s="2"/>
       <c r="N547" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O547" s="2">
         <v>288.7</v>
@@ -23280,7 +23276,7 @@
       <c r="L548" s="2"/>
       <c r="M548" s="2"/>
       <c r="N548" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O548" s="2">
         <v>442</v>
@@ -23314,7 +23310,7 @@
       <c r="L549" s="2"/>
       <c r="M549" s="2"/>
       <c r="N549" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O549" s="2">
         <v>702</v>
@@ -23348,7 +23344,7 @@
       <c r="L550" s="2"/>
       <c r="M550" s="2"/>
       <c r="N550" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O550" s="2">
         <v>378.5</v>
@@ -23410,7 +23406,7 @@
       <c r="L552" s="2"/>
       <c r="M552" s="2"/>
       <c r="N552" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O552" s="2">
         <v>334.71</v>
@@ -23444,7 +23440,7 @@
       <c r="L553" s="2"/>
       <c r="M553" s="2"/>
       <c r="N553" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O553" s="2">
         <v>1760</v>
@@ -23453,7 +23449,7 @@
         <v>214</v>
       </c>
       <c r="Q553" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R553" s="3">
         <v>45445</v>
@@ -23482,14 +23478,14 @@
       <c r="L554" s="2"/>
       <c r="M554" s="2"/>
       <c r="N554" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O554" s="2">
         <v>0</v>
       </c>
       <c r="P554" s="2"/>
       <c r="Q554" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R554" s="3">
         <v>45445</v>
@@ -23518,14 +23514,14 @@
       <c r="L555" s="2"/>
       <c r="M555" s="2"/>
       <c r="N555" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O555" s="2">
         <v>0</v>
       </c>
       <c r="P555" s="2"/>
       <c r="Q555" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R555" s="3">
         <v>45445</v>
@@ -23554,7 +23550,7 @@
       <c r="L556" s="2"/>
       <c r="M556" s="2"/>
       <c r="N556" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O556" s="2">
         <v>400</v>
@@ -23588,7 +23584,7 @@
       <c r="L557" s="2"/>
       <c r="M557" s="2"/>
       <c r="N557" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O557" s="2">
         <v>289.19</v>
@@ -23622,7 +23618,7 @@
       <c r="L558" s="2"/>
       <c r="M558" s="2"/>
       <c r="N558" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O558" s="2">
         <v>644</v>
@@ -23656,7 +23652,7 @@
       <c r="L559" s="2"/>
       <c r="M559" s="2"/>
       <c r="N559" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O559" s="2">
         <v>800</v>
@@ -23696,7 +23692,7 @@
       <c r="L560" s="2"/>
       <c r="M560" s="2"/>
       <c r="N560" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O560" s="2">
         <v>1018.97</v>
@@ -23736,7 +23732,7 @@
       <c r="L561" s="2"/>
       <c r="M561" s="2"/>
       <c r="N561" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O561" s="2">
         <v>300.75</v>
@@ -23770,7 +23766,7 @@
       <c r="L562" s="2"/>
       <c r="M562" s="2"/>
       <c r="N562" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O562" s="2">
         <v>746.53</v>
@@ -23804,14 +23800,14 @@
       <c r="L563" s="2"/>
       <c r="M563" s="2"/>
       <c r="N563" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O563" s="2">
         <v>0</v>
       </c>
       <c r="P563" s="2"/>
       <c r="Q563" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R563" s="3">
         <v>45445</v>
@@ -23868,14 +23864,14 @@
       <c r="L565" s="2"/>
       <c r="M565" s="2"/>
       <c r="N565" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O565" s="2">
         <v>0</v>
       </c>
       <c r="P565" s="2"/>
       <c r="Q565" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R565" s="3">
         <v>45445</v>
@@ -23988,7 +23984,7 @@
       <c r="L569" s="2"/>
       <c r="M569" s="2"/>
       <c r="N569" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O569" s="2">
         <v>2055</v>
@@ -23997,7 +23993,7 @@
         <v>214</v>
       </c>
       <c r="Q569" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R569" s="3">
         <v>45445</v>
@@ -24026,7 +24022,7 @@
       <c r="L570" s="2"/>
       <c r="M570" s="2"/>
       <c r="N570" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O570" s="2">
         <v>1239</v>
@@ -24062,7 +24058,7 @@
       <c r="L571" s="2"/>
       <c r="M571" s="2"/>
       <c r="N571" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O571" s="2">
         <v>200</v>
@@ -24098,7 +24094,7 @@
       <c r="L572" s="2"/>
       <c r="M572" s="2"/>
       <c r="N572" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O572" s="2">
         <v>175</v>
@@ -24132,7 +24128,7 @@
       <c r="L573" s="2"/>
       <c r="M573" s="2"/>
       <c r="N573" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O573" s="2">
         <v>293.91000000000003</v>
@@ -24166,7 +24162,7 @@
       <c r="L574" s="2"/>
       <c r="M574" s="2"/>
       <c r="N574" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O574" s="2">
         <v>805</v>
@@ -24206,14 +24202,14 @@
       <c r="L575" s="2"/>
       <c r="M575" s="2"/>
       <c r="N575" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O575" s="2">
         <v>0</v>
       </c>
       <c r="P575" s="2"/>
       <c r="Q575" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R575" s="3">
         <v>45445</v>
@@ -24344,14 +24340,14 @@
       <c r="L579" s="2"/>
       <c r="M579" s="2"/>
       <c r="N579" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O579" s="2">
         <v>274</v>
       </c>
       <c r="P579" s="2"/>
       <c r="Q579" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R579" s="3">
         <v>45445</v>
@@ -24386,7 +24382,7 @@
       <c r="L580" s="2"/>
       <c r="M580" s="2"/>
       <c r="N580" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O580" s="2">
         <v>1035</v>
@@ -24395,7 +24391,7 @@
         <v>214</v>
       </c>
       <c r="Q580" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R580" s="3">
         <v>45445</v>
@@ -24430,7 +24426,7 @@
       <c r="L581" s="2"/>
       <c r="M581" s="2"/>
       <c r="N581" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O581" s="2">
         <v>795</v>
@@ -24439,7 +24435,7 @@
         <v>214</v>
       </c>
       <c r="Q581" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R581" s="3">
         <v>45445</v>
@@ -24468,7 +24464,7 @@
       <c r="L582" s="2"/>
       <c r="M582" s="2"/>
       <c r="N582" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O582" s="2">
         <v>450</v>
@@ -24540,7 +24536,7 @@
       <c r="L584" s="2"/>
       <c r="M584" s="2"/>
       <c r="N584" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O584" s="2">
         <v>610</v>
@@ -24576,7 +24572,7 @@
       <c r="L585" s="2"/>
       <c r="M585" s="2"/>
       <c r="N585" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O585" s="2">
         <v>435</v>
@@ -24610,7 +24606,7 @@
       <c r="L586" s="2"/>
       <c r="M586" s="2"/>
       <c r="N586" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O586" s="2">
         <v>83</v>
@@ -24644,7 +24640,7 @@
       <c r="L587" s="2"/>
       <c r="M587" s="2"/>
       <c r="N587" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O587" s="2">
         <v>70</v>
@@ -24682,7 +24678,7 @@
       <c r="L588" s="2"/>
       <c r="M588" s="2"/>
       <c r="N588" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O588" s="2">
         <v>80</v>
@@ -24720,7 +24716,7 @@
       <c r="L589" s="2"/>
       <c r="M589" s="2"/>
       <c r="N589" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O589" s="2">
         <v>100</v>
@@ -24756,7 +24752,7 @@
       <c r="L590" s="2"/>
       <c r="M590" s="2"/>
       <c r="N590" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O590" s="2">
         <v>118</v>
@@ -24790,7 +24786,7 @@
       <c r="L591" s="2"/>
       <c r="M591" s="2"/>
       <c r="N591" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O591" s="2">
         <v>107</v>
@@ -24824,7 +24820,7 @@
       <c r="L592" s="2"/>
       <c r="M592" s="2"/>
       <c r="N592" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O592" s="2">
         <v>282.10000000000002</v>
@@ -24858,7 +24854,7 @@
       <c r="L593" s="2"/>
       <c r="M593" s="2"/>
       <c r="N593" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O593" s="2">
         <v>287.8</v>
@@ -24893,7 +24889,7 @@
       <c r="O594" s="2"/>
       <c r="P594" s="2"/>
       <c r="Q594" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R594" s="3">
         <v>45445</v>
@@ -24922,7 +24918,7 @@
       <c r="L595" s="2"/>
       <c r="M595" s="2"/>
       <c r="N595" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O595" s="2">
         <v>64.7</v>
@@ -24956,14 +24952,14 @@
       <c r="L596" s="2"/>
       <c r="M596" s="2"/>
       <c r="N596" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O596" s="2">
         <v>0</v>
       </c>
       <c r="P596" s="2"/>
       <c r="Q596" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R596" s="3">
         <v>45445</v>
@@ -24992,14 +24988,14 @@
       <c r="L597" s="2"/>
       <c r="M597" s="2"/>
       <c r="N597" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O597" s="2">
         <v>0</v>
       </c>
       <c r="P597" s="2"/>
       <c r="Q597" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R597" s="3">
         <v>45445</v>
@@ -25028,14 +25024,14 @@
       <c r="L598" s="2"/>
       <c r="M598" s="2"/>
       <c r="N598" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O598" s="2">
         <v>0</v>
       </c>
       <c r="P598" s="2"/>
       <c r="Q598" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R598" s="3">
         <v>45445</v>
@@ -25064,7 +25060,7 @@
       <c r="L599" s="2"/>
       <c r="M599" s="2"/>
       <c r="N599" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O599" s="2">
         <v>229.6</v>
@@ -25135,7 +25131,7 @@
       </c>
       <c r="P601" s="2"/>
       <c r="Q601" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R601" s="3">
         <v>45445</v>
@@ -25168,14 +25164,14 @@
       <c r="L602" s="2"/>
       <c r="M602" s="2"/>
       <c r="N602" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O602" s="2">
         <v>40</v>
       </c>
       <c r="P602" s="2"/>
       <c r="Q602" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R602" s="3">
         <v>45445</v>
@@ -25213,7 +25209,7 @@
         <v>214</v>
       </c>
       <c r="Q603" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R603" s="3">
         <v>45445</v>
@@ -25246,14 +25242,14 @@
       <c r="L604" s="2"/>
       <c r="M604" s="2"/>
       <c r="N604" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O604" s="2">
         <v>0</v>
       </c>
       <c r="P604" s="2"/>
       <c r="Q604" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R604" s="3">
         <v>45445</v>
@@ -25282,7 +25278,7 @@
       <c r="L605" s="2"/>
       <c r="M605" s="2"/>
       <c r="N605" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O605" s="2">
         <v>490</v>
@@ -25316,7 +25312,7 @@
       <c r="L606" s="2"/>
       <c r="M606" s="2"/>
       <c r="N606" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O606" s="2">
         <v>233</v>
@@ -25352,14 +25348,14 @@
       <c r="L607" s="2"/>
       <c r="M607" s="2"/>
       <c r="N607" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="O607" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="O607" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="P607" s="2"/>
       <c r="Q607" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R607" s="3">
         <v>45445</v>
@@ -25388,7 +25384,7 @@
       <c r="L608" s="2"/>
       <c r="M608" s="2"/>
       <c r="N608" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O608" s="2">
         <v>21</v>
@@ -25423,7 +25419,7 @@
       <c r="O609" s="2"/>
       <c r="P609" s="2"/>
       <c r="Q609" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R609" s="3">
         <v>45445</v>
@@ -25452,7 +25448,7 @@
       <c r="L610" s="2"/>
       <c r="M610" s="2"/>
       <c r="N610" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O610" s="2">
         <v>151.30000000000001</v>
@@ -25486,7 +25482,7 @@
       <c r="L611" s="2"/>
       <c r="M611" s="2"/>
       <c r="N611" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O611" s="2">
         <v>682.5</v>
@@ -25520,7 +25516,7 @@
       <c r="L612" s="2"/>
       <c r="M612" s="2"/>
       <c r="N612" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O612" s="2">
         <v>232.5</v>
@@ -25558,7 +25554,7 @@
       <c r="L613" s="2"/>
       <c r="M613" s="2"/>
       <c r="N613" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O613" s="2">
         <v>410</v>
@@ -25594,7 +25590,7 @@
       <c r="L614" s="2"/>
       <c r="M614" s="2"/>
       <c r="N614" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O614" s="2">
         <v>430</v>
@@ -25662,7 +25658,7 @@
       <c r="L616" s="2"/>
       <c r="M616" s="2"/>
       <c r="N616" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O616" s="2">
         <v>150</v>
@@ -25696,7 +25692,7 @@
       <c r="L617" s="2"/>
       <c r="M617" s="2"/>
       <c r="N617" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O617" s="2">
         <v>370</v>
@@ -25730,7 +25726,7 @@
       <c r="L618" s="2"/>
       <c r="M618" s="2"/>
       <c r="N618" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O618" s="2">
         <v>285</v>
@@ -25764,7 +25760,7 @@
       <c r="L619" s="2"/>
       <c r="M619" s="2"/>
       <c r="N619" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O619" s="2">
         <v>365</v>
@@ -25798,7 +25794,7 @@
       <c r="L620" s="2"/>
       <c r="M620" s="2"/>
       <c r="N620" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O620" s="2">
         <v>450</v>
@@ -25838,7 +25834,7 @@
       <c r="L621" s="2"/>
       <c r="M621" s="2"/>
       <c r="N621" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O621" s="2">
         <v>347</v>
@@ -25876,7 +25872,7 @@
       <c r="L622" s="2"/>
       <c r="M622" s="2"/>
       <c r="N622" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O622" s="2">
         <v>410</v>
@@ -25912,7 +25908,7 @@
       <c r="L623" s="2"/>
       <c r="M623" s="2"/>
       <c r="N623" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O623" s="2">
         <v>300</v>
@@ -25946,7 +25942,7 @@
       <c r="L624" s="2"/>
       <c r="M624" s="2"/>
       <c r="N624" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O624" s="2">
         <v>225</v>
@@ -26052,7 +26048,7 @@
       <c r="L627" s="2"/>
       <c r="M627" s="2"/>
       <c r="N627" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O627" s="2">
         <v>180</v>
@@ -26126,14 +26122,14 @@
       <c r="L629" s="2"/>
       <c r="M629" s="2"/>
       <c r="N629" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O629" s="2">
         <v>968</v>
       </c>
       <c r="P629" s="2"/>
       <c r="Q629" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R629" s="3">
         <v>45445</v>
@@ -26166,7 +26162,7 @@
       <c r="L630" s="2"/>
       <c r="M630" s="2"/>
       <c r="N630" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O630" s="2">
         <v>366</v>
@@ -26206,14 +26202,14 @@
       <c r="L631" s="2"/>
       <c r="M631" s="2"/>
       <c r="N631" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O631" s="2">
         <v>0</v>
       </c>
       <c r="P631" s="2"/>
       <c r="Q631" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R631" s="3">
         <v>45445</v>
@@ -26248,14 +26244,14 @@
       <c r="L632" s="2"/>
       <c r="M632" s="2"/>
       <c r="N632" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O632" s="2">
         <v>0</v>
       </c>
       <c r="P632" s="2"/>
       <c r="Q632" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R632" s="3">
         <v>45445</v>
@@ -26284,7 +26280,7 @@
       <c r="L633" s="2"/>
       <c r="M633" s="2"/>
       <c r="N633" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O633" s="2">
         <v>825.4</v>
@@ -26322,7 +26318,7 @@
       <c r="L634" s="2"/>
       <c r="M634" s="2"/>
       <c r="N634" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O634" s="2">
         <v>808.57</v>
@@ -26358,7 +26354,7 @@
       <c r="L635" s="2"/>
       <c r="M635" s="2"/>
       <c r="N635" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O635" s="2">
         <v>908</v>
@@ -26422,7 +26418,7 @@
       <c r="L637" s="2"/>
       <c r="M637" s="2"/>
       <c r="N637" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O637" s="2">
         <v>335</v>
@@ -26458,7 +26454,7 @@
       <c r="L638" s="2"/>
       <c r="M638" s="2"/>
       <c r="N638" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O638" s="2">
         <v>306.8</v>
@@ -26526,7 +26522,7 @@
       <c r="L640" s="2"/>
       <c r="M640" s="2"/>
       <c r="N640" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O640" s="2">
         <v>361</v>
@@ -26566,7 +26562,7 @@
       <c r="L641" s="2"/>
       <c r="M641" s="2"/>
       <c r="N641" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O641" s="2">
         <v>981.93</v>
@@ -26606,7 +26602,7 @@
       <c r="L642" s="2"/>
       <c r="M642" s="2"/>
       <c r="N642" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O642" s="2">
         <v>182.83</v>
@@ -26646,7 +26642,7 @@
       <c r="L643" s="2"/>
       <c r="M643" s="2"/>
       <c r="N643" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O643" s="2">
         <v>94.25</v>
@@ -26686,7 +26682,7 @@
       <c r="L644" s="2"/>
       <c r="M644" s="2"/>
       <c r="N644" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O644" s="2">
         <v>94.25</v>
@@ -26726,7 +26722,7 @@
       <c r="L645" s="2"/>
       <c r="M645" s="2"/>
       <c r="N645" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O645" s="2">
         <v>270.72000000000003</v>
@@ -26766,7 +26762,7 @@
       <c r="L646" s="2"/>
       <c r="M646" s="2"/>
       <c r="N646" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O646" s="2">
         <v>414</v>
@@ -26806,7 +26802,7 @@
       <c r="L647" s="2"/>
       <c r="M647" s="2"/>
       <c r="N647" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O647" s="2">
         <v>1330.54</v>
@@ -26844,7 +26840,7 @@
       <c r="L648" s="2"/>
       <c r="M648" s="2"/>
       <c r="N648" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O648" s="2">
         <v>660</v>
@@ -26884,7 +26880,7 @@
       <c r="L649" s="2"/>
       <c r="M649" s="2"/>
       <c r="N649" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O649" s="2">
         <v>602.4</v>
@@ -26922,7 +26918,7 @@
       <c r="L650" s="2"/>
       <c r="M650" s="2"/>
       <c r="N650" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O650" s="2">
         <v>191.6</v>
@@ -26956,7 +26952,7 @@
       <c r="L651" s="2"/>
       <c r="M651" s="2"/>
       <c r="N651" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O651" s="2">
         <v>1240</v>
@@ -26992,7 +26988,7 @@
       <c r="L652" s="2"/>
       <c r="M652" s="2"/>
       <c r="N652" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O652" s="2">
         <v>946.2</v>
@@ -27030,7 +27026,7 @@
       <c r="L653" s="2"/>
       <c r="M653" s="2"/>
       <c r="N653" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O653" s="2">
         <v>1210</v>
@@ -27068,7 +27064,7 @@
       <c r="L654" s="2"/>
       <c r="M654" s="2"/>
       <c r="N654" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O654" s="2">
         <v>571.36</v>
@@ -27106,7 +27102,7 @@
       <c r="L655" s="2"/>
       <c r="M655" s="2"/>
       <c r="N655" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O655" s="2">
         <v>62.2</v>
@@ -27144,7 +27140,7 @@
       <c r="L656" s="2"/>
       <c r="M656" s="2"/>
       <c r="N656" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O656" s="2">
         <v>328.88</v>
@@ -27182,7 +27178,7 @@
       <c r="L657" s="2"/>
       <c r="M657" s="2"/>
       <c r="N657" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O657" s="2">
         <v>1141.25</v>
@@ -27220,7 +27216,7 @@
       <c r="L658" s="2"/>
       <c r="M658" s="2"/>
       <c r="N658" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O658" s="2">
         <v>660</v>
@@ -27254,7 +27250,7 @@
       <c r="L659" s="2"/>
       <c r="M659" s="2"/>
       <c r="N659" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O659" s="2">
         <v>476</v>
@@ -27288,7 +27284,7 @@
       <c r="L660" s="2"/>
       <c r="M660" s="2"/>
       <c r="N660" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O660" s="2">
         <v>245</v>
@@ -27328,7 +27324,7 @@
       <c r="L661" s="2"/>
       <c r="M661" s="2"/>
       <c r="N661" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O661" s="2">
         <v>605</v>
@@ -27362,7 +27358,7 @@
       <c r="L662" s="2"/>
       <c r="M662" s="2"/>
       <c r="N662" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O662" s="2">
         <v>180</v>
@@ -27398,7 +27394,7 @@
       <c r="L663" s="2"/>
       <c r="M663" s="2"/>
       <c r="N663" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O663" s="2">
         <v>324</v>
@@ -27434,7 +27430,7 @@
       <c r="L664" s="2"/>
       <c r="M664" s="2"/>
       <c r="N664" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O664" s="2">
         <v>300</v>
@@ -27472,7 +27468,7 @@
       <c r="L665" s="2"/>
       <c r="M665" s="2"/>
       <c r="N665" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O665" s="2">
         <v>367</v>
@@ -27510,14 +27506,14 @@
       <c r="L666" s="2"/>
       <c r="M666" s="2"/>
       <c r="N666" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O666" s="2">
         <v>2500</v>
       </c>
       <c r="P666" s="2"/>
       <c r="Q666" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R666" s="3">
         <v>45445</v>
@@ -27546,7 +27542,7 @@
       <c r="L667" s="2"/>
       <c r="M667" s="2"/>
       <c r="N667" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O667" s="2">
         <v>720</v>
@@ -27582,7 +27578,7 @@
       <c r="L668" s="2"/>
       <c r="M668" s="2"/>
       <c r="N668" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O668" s="2">
         <v>720</v>
@@ -27618,7 +27614,7 @@
       <c r="L669" s="2"/>
       <c r="M669" s="2"/>
       <c r="N669" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O669" s="2">
         <v>645</v>
@@ -27656,14 +27652,14 @@
       <c r="L670" s="2"/>
       <c r="M670" s="2"/>
       <c r="N670" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O670" s="2">
         <v>0</v>
       </c>
       <c r="P670" s="2"/>
       <c r="Q670" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R670" s="3">
         <v>45445</v>
@@ -27726,7 +27722,7 @@
       <c r="L672" s="2"/>
       <c r="M672" s="2"/>
       <c r="N672" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O672" s="2">
         <v>735</v>
@@ -27762,14 +27758,14 @@
       <c r="L673" s="2"/>
       <c r="M673" s="2"/>
       <c r="N673" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O673" s="2">
         <v>1235.17</v>
       </c>
       <c r="P673" s="2"/>
       <c r="Q673" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R673" s="3">
         <v>45445</v>
@@ -27800,14 +27796,14 @@
       <c r="L674" s="2"/>
       <c r="M674" s="2"/>
       <c r="N674" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O674" s="2">
         <v>630.41</v>
       </c>
       <c r="P674" s="2"/>
       <c r="Q674" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R674" s="3">
         <v>45445</v>
@@ -27872,7 +27868,7 @@
       <c r="L676" s="2"/>
       <c r="M676" s="2"/>
       <c r="N676" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O676" s="2">
         <v>1075</v>
@@ -27908,12 +27904,12 @@
       <c r="L677" s="2"/>
       <c r="M677" s="2"/>
       <c r="N677" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O677" s="2"/>
       <c r="P677" s="2"/>
       <c r="Q677" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R677" s="3">
         <v>45445</v>
@@ -27978,7 +27974,7 @@
       <c r="L679" s="2"/>
       <c r="M679" s="2"/>
       <c r="N679" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O679" s="2">
         <v>580</v>
@@ -28014,7 +28010,7 @@
       <c r="L680" s="2"/>
       <c r="M680" s="2"/>
       <c r="N680" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O680" s="2">
         <v>570</v>
@@ -28050,7 +28046,7 @@
       <c r="L681" s="2"/>
       <c r="M681" s="2"/>
       <c r="N681" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O681" s="2">
         <v>1200</v>
@@ -28086,7 +28082,7 @@
       <c r="L682" s="2"/>
       <c r="M682" s="2"/>
       <c r="N682" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O682" s="2">
         <v>835</v>
@@ -28122,14 +28118,14 @@
       <c r="L683" s="2"/>
       <c r="M683" s="2"/>
       <c r="N683" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O683" s="2">
         <v>1070</v>
       </c>
       <c r="P683" s="2"/>
       <c r="Q683" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R683" s="3">
         <v>45445</v>
@@ -28158,7 +28154,7 @@
       <c r="L684" s="2"/>
       <c r="M684" s="2"/>
       <c r="N684" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O684" s="2">
         <v>366</v>
@@ -28192,7 +28188,7 @@
       <c r="L685" s="2"/>
       <c r="M685" s="2"/>
       <c r="N685" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O685" s="2">
         <v>437.33</v>
@@ -28226,7 +28222,7 @@
       <c r="L686" s="2"/>
       <c r="M686" s="2"/>
       <c r="N686" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O686" s="2">
         <v>744.9</v>
@@ -28264,7 +28260,7 @@
       <c r="L687" s="2"/>
       <c r="M687" s="2"/>
       <c r="N687" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O687" s="2">
         <v>421.6</v>
@@ -28298,7 +28294,7 @@
       <c r="L688" s="2"/>
       <c r="M688" s="2"/>
       <c r="N688" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O688" s="2">
         <v>269</v>
@@ -28332,7 +28328,7 @@
       <c r="L689" s="2"/>
       <c r="M689" s="2"/>
       <c r="N689" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O689" s="2">
         <v>671</v>
@@ -28366,14 +28362,14 @@
       <c r="L690" s="2"/>
       <c r="M690" s="2"/>
       <c r="N690" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O690" s="2">
         <v>0</v>
       </c>
       <c r="P690" s="2"/>
       <c r="Q690" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R690" s="3">
         <v>45445</v>
@@ -28402,7 +28398,7 @@
       <c r="L691" s="2"/>
       <c r="M691" s="2"/>
       <c r="N691" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O691" s="2">
         <v>370</v>
@@ -28436,14 +28432,14 @@
       <c r="L692" s="2"/>
       <c r="M692" s="2"/>
       <c r="N692" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O692" s="2">
         <v>0</v>
       </c>
       <c r="P692" s="2"/>
       <c r="Q692" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R692" s="3">
         <v>45445</v>
@@ -28478,7 +28474,7 @@
       <c r="L693" s="2"/>
       <c r="M693" s="2"/>
       <c r="N693" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O693" s="2">
         <v>302.25</v>
@@ -28518,7 +28514,7 @@
       <c r="L694" s="2"/>
       <c r="M694" s="2"/>
       <c r="N694" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O694" s="2">
         <v>238.23</v>
@@ -28558,7 +28554,7 @@
       <c r="L695" s="2"/>
       <c r="M695" s="2"/>
       <c r="N695" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O695" s="2">
         <v>552.54999999999995</v>
@@ -28592,14 +28588,14 @@
       <c r="L696" s="2"/>
       <c r="M696" s="2"/>
       <c r="N696" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O696" s="2">
         <v>0</v>
       </c>
       <c r="P696" s="2"/>
       <c r="Q696" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R696" s="3">
         <v>45445</v>
@@ -28628,7 +28624,7 @@
       <c r="L697" s="2"/>
       <c r="M697" s="2"/>
       <c r="N697" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O697" s="2">
         <v>615</v>
@@ -28662,7 +28658,7 @@
       <c r="L698" s="2"/>
       <c r="M698" s="2"/>
       <c r="N698" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O698" s="2">
         <v>338</v>
@@ -28696,7 +28692,7 @@
       <c r="L699" s="2"/>
       <c r="M699" s="2"/>
       <c r="N699" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O699" s="2">
         <v>346.55</v>
@@ -28730,7 +28726,7 @@
       <c r="L700" s="2"/>
       <c r="M700" s="2"/>
       <c r="N700" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O700" s="2">
         <v>493.93</v>
@@ -28766,7 +28762,7 @@
       <c r="L701" s="2"/>
       <c r="M701" s="2"/>
       <c r="N701" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O701" s="2">
         <v>496.96</v>
@@ -28802,7 +28798,7 @@
       <c r="L702" s="2"/>
       <c r="M702" s="2"/>
       <c r="N702" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O702" s="2">
         <v>925</v>
@@ -28868,7 +28864,7 @@
       <c r="L704" s="2"/>
       <c r="M704" s="2"/>
       <c r="N704" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O704" s="2">
         <v>292</v>
@@ -28903,7 +28899,7 @@
       <c r="O705" s="2"/>
       <c r="P705" s="2"/>
       <c r="Q705" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R705" s="3">
         <v>45445</v>
@@ -28932,7 +28928,7 @@
       <c r="L706" s="2"/>
       <c r="M706" s="2"/>
       <c r="N706" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O706" s="2">
         <v>106</v>
@@ -28966,7 +28962,7 @@
       <c r="L707" s="2"/>
       <c r="M707" s="2"/>
       <c r="N707" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O707" s="2">
         <v>400</v>
@@ -29000,7 +28996,7 @@
       <c r="L708" s="2"/>
       <c r="M708" s="2"/>
       <c r="N708" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O708" s="2">
         <v>2760</v>
@@ -29034,7 +29030,7 @@
       <c r="L709" s="2"/>
       <c r="M709" s="2"/>
       <c r="N709" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O709" s="2">
         <v>200</v>
@@ -29068,7 +29064,7 @@
       <c r="L710" s="2"/>
       <c r="M710" s="2"/>
       <c r="N710" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O710" s="2">
         <v>685.8</v>
@@ -29106,7 +29102,7 @@
       <c r="L711" s="2"/>
       <c r="M711" s="2"/>
       <c r="N711" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O711" s="2">
         <v>900</v>
@@ -29141,7 +29137,7 @@
       <c r="O712" s="2"/>
       <c r="P712" s="2"/>
       <c r="Q712" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R712" s="3">
         <v>45445</v>
@@ -29172,7 +29168,7 @@
       <c r="L713" s="2"/>
       <c r="M713" s="2"/>
       <c r="N713" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O713" s="2">
         <v>974.9</v>
@@ -29181,7 +29177,7 @@
         <v>214</v>
       </c>
       <c r="Q713" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R713" s="3">
         <v>45445</v>
@@ -29212,7 +29208,7 @@
       <c r="L714" s="2"/>
       <c r="M714" s="2"/>
       <c r="N714" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O714" s="2">
         <v>1587.5</v>
@@ -29248,7 +29244,7 @@
       <c r="L715" s="2"/>
       <c r="M715" s="2"/>
       <c r="N715" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O715" s="2">
         <v>806.1</v>
@@ -29282,7 +29278,7 @@
       <c r="L716" s="2"/>
       <c r="M716" s="2"/>
       <c r="N716" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O716" s="2">
         <v>785.2</v>
@@ -29316,7 +29312,7 @@
       <c r="L717" s="2"/>
       <c r="M717" s="2"/>
       <c r="N717" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O717" s="2">
         <v>508</v>
@@ -29350,7 +29346,7 @@
       <c r="L718" s="2"/>
       <c r="M718" s="2"/>
       <c r="N718" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O718" s="2">
         <v>892.8</v>
@@ -29384,7 +29380,7 @@
       <c r="L719" s="2"/>
       <c r="M719" s="2"/>
       <c r="N719" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O719" s="2">
         <v>1338.48</v>
@@ -29420,7 +29416,7 @@
       <c r="L720" s="2"/>
       <c r="M720" s="2"/>
       <c r="N720" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O720" s="2">
         <v>402</v>
@@ -29456,7 +29452,7 @@
       <c r="L721" s="2"/>
       <c r="M721" s="2"/>
       <c r="N721" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O721" s="2">
         <v>528.27</v>
@@ -29518,7 +29514,7 @@
       <c r="L723" s="2"/>
       <c r="M723" s="2"/>
       <c r="N723" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O723" s="2">
         <v>350</v>
@@ -29556,12 +29552,12 @@
       <c r="L724" s="2"/>
       <c r="M724" s="2"/>
       <c r="N724" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O724" s="2"/>
       <c r="P724" s="2"/>
       <c r="Q724" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R724" s="3">
         <v>45445</v>
@@ -29592,7 +29588,7 @@
       <c r="L725" s="2"/>
       <c r="M725" s="2"/>
       <c r="N725" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O725" s="2">
         <v>145.30000000000001</v>
@@ -29630,7 +29626,7 @@
       <c r="L726" s="2"/>
       <c r="M726" s="2"/>
       <c r="N726" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O726" s="2">
         <v>1445</v>
@@ -29668,7 +29664,7 @@
       <c r="L727" s="2"/>
       <c r="M727" s="2"/>
       <c r="N727" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O727" s="2">
         <v>475.2</v>
@@ -29703,7 +29699,7 @@
       <c r="O728" s="2"/>
       <c r="P728" s="2"/>
       <c r="Q728" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R728" s="3">
         <v>45445</v>
@@ -29733,7 +29729,7 @@
       <c r="O729" s="2"/>
       <c r="P729" s="2"/>
       <c r="Q729" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R729" s="3">
         <v>45445</v>
@@ -29762,7 +29758,7 @@
       <c r="L730" s="2"/>
       <c r="M730" s="2"/>
       <c r="N730" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O730" s="2">
         <v>280</v>
@@ -29832,7 +29828,7 @@
       <c r="L732" s="2"/>
       <c r="M732" s="2"/>
       <c r="N732" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O732" s="2">
         <v>608.23</v>
@@ -29866,7 +29862,7 @@
       <c r="L733" s="2"/>
       <c r="M733" s="2"/>
       <c r="N733" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O733" s="2">
         <v>2585</v>
@@ -29934,7 +29930,7 @@
       <c r="L735" s="2"/>
       <c r="M735" s="2"/>
       <c r="N735" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O735" s="2">
         <v>1665</v>
@@ -29943,7 +29939,7 @@
         <v>214</v>
       </c>
       <c r="Q735" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R735" s="3">
         <v>45445</v>
@@ -29972,7 +29968,7 @@
       <c r="L736" s="2"/>
       <c r="M736" s="2"/>
       <c r="N736" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O736" s="2">
         <v>300</v>
@@ -30006,7 +30002,7 @@
       <c r="L737" s="2"/>
       <c r="M737" s="2"/>
       <c r="N737" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O737" s="2">
         <v>365</v>
@@ -30040,7 +30036,7 @@
       <c r="L738" s="2"/>
       <c r="M738" s="2"/>
       <c r="N738" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O738" s="2">
         <v>113.36</v>
@@ -30074,7 +30070,7 @@
       <c r="L739" s="2"/>
       <c r="M739" s="2"/>
       <c r="N739" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O739" s="2">
         <v>94.98</v>
@@ -30108,7 +30104,7 @@
       <c r="L740" s="2"/>
       <c r="M740" s="2"/>
       <c r="N740" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O740" s="2">
         <v>179</v>
@@ -30142,7 +30138,7 @@
       <c r="L741" s="2"/>
       <c r="M741" s="2"/>
       <c r="N741" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O741" s="2">
         <v>208.49</v>
@@ -30176,7 +30172,7 @@
       <c r="L742" s="2"/>
       <c r="M742" s="2"/>
       <c r="N742" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O742" s="2">
         <v>465</v>
@@ -30210,7 +30206,7 @@
       <c r="L743" s="2"/>
       <c r="M743" s="2"/>
       <c r="N743" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O743" s="2">
         <v>190</v>
@@ -30248,7 +30244,7 @@
       <c r="L744" s="2"/>
       <c r="M744" s="2"/>
       <c r="N744" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O744" s="2">
         <v>444.7</v>
@@ -30288,7 +30284,7 @@
       <c r="L745" s="2"/>
       <c r="M745" s="2"/>
       <c r="N745" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O745" s="2">
         <v>293.48</v>
@@ -30331,7 +30327,7 @@
       </c>
       <c r="P746" s="2"/>
       <c r="Q746" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R746" s="3">
         <v>45445</v>
@@ -30360,7 +30356,7 @@
       <c r="L747" s="2"/>
       <c r="M747" s="2"/>
       <c r="N747" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O747" s="2">
         <v>690</v>
@@ -30394,7 +30390,7 @@
       <c r="L748" s="2"/>
       <c r="M748" s="2"/>
       <c r="N748" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O748" s="2">
         <v>263</v>
@@ -30428,7 +30424,7 @@
       <c r="L749" s="2"/>
       <c r="M749" s="2"/>
       <c r="N749" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O749" s="2">
         <v>120</v>
@@ -30462,7 +30458,7 @@
       <c r="L750" s="2"/>
       <c r="M750" s="2"/>
       <c r="N750" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O750" s="2">
         <v>125.7</v>
@@ -30496,7 +30492,7 @@
       <c r="L751" s="2"/>
       <c r="M751" s="2"/>
       <c r="N751" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O751" s="2">
         <v>465</v>
@@ -30532,7 +30528,7 @@
       <c r="L752" s="2"/>
       <c r="M752" s="2"/>
       <c r="N752" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O752" s="2">
         <v>247.08</v>
@@ -30566,7 +30562,7 @@
       <c r="L753" s="2"/>
       <c r="M753" s="2"/>
       <c r="N753" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O753" s="2">
         <v>340</v>
@@ -30604,7 +30600,7 @@
       <c r="L754" s="2"/>
       <c r="M754" s="2"/>
       <c r="N754" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O754" s="2">
         <v>505</v>
@@ -30613,7 +30609,7 @@
         <v>214</v>
       </c>
       <c r="Q754" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R754" s="3">
         <v>45445</v>
@@ -30704,7 +30700,7 @@
       <c r="L757" s="2"/>
       <c r="M757" s="2"/>
       <c r="N757" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O757" s="2">
         <v>400</v>
@@ -30713,7 +30709,7 @@
         <v>214</v>
       </c>
       <c r="Q757" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R757" s="3">
         <v>45445</v>
@@ -30742,14 +30738,14 @@
       <c r="L758" s="2"/>
       <c r="M758" s="2"/>
       <c r="N758" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O758" s="2">
         <v>135</v>
       </c>
       <c r="P758" s="2"/>
       <c r="Q758" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R758" s="3">
         <v>45445</v>
@@ -30778,7 +30774,7 @@
       <c r="L759" s="2"/>
       <c r="M759" s="2"/>
       <c r="N759" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O759" s="2">
         <v>590</v>
@@ -30787,7 +30783,7 @@
         <v>214</v>
       </c>
       <c r="Q759" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R759" s="3">
         <v>45445</v>
@@ -30816,14 +30812,14 @@
       <c r="L760" s="2"/>
       <c r="M760" s="2"/>
       <c r="N760" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O760" s="2">
         <v>183.83</v>
       </c>
       <c r="P760" s="2"/>
       <c r="Q760" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R760" s="3">
         <v>45445</v>
@@ -30852,14 +30848,14 @@
       <c r="L761" s="2"/>
       <c r="M761" s="2"/>
       <c r="N761" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O761" s="2">
         <v>120.62</v>
       </c>
       <c r="P761" s="2"/>
       <c r="Q761" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R761" s="3">
         <v>45445</v>
@@ -30916,14 +30912,14 @@
       <c r="L763" s="2"/>
       <c r="M763" s="2"/>
       <c r="N763" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O763" s="2">
         <v>141.62</v>
       </c>
       <c r="P763" s="2"/>
       <c r="Q763" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R763" s="3">
         <v>45445</v>
@@ -30952,7 +30948,7 @@
       <c r="L764" s="2"/>
       <c r="M764" s="2"/>
       <c r="N764" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O764" s="2">
         <v>352.71</v>
@@ -30986,7 +30982,7 @@
       <c r="L765" s="2"/>
       <c r="M765" s="2"/>
       <c r="N765" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O765" s="2">
         <v>1017.47</v>
@@ -31022,14 +31018,14 @@
       <c r="L766" s="2"/>
       <c r="M766" s="2"/>
       <c r="N766" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O766" s="2">
         <v>0</v>
       </c>
       <c r="P766" s="2"/>
       <c r="Q766" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R766" s="3">
         <v>45445</v>
@@ -31060,14 +31056,14 @@
       <c r="L767" s="2"/>
       <c r="M767" s="2"/>
       <c r="N767" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O767" s="2">
         <v>635.22</v>
       </c>
       <c r="P767" s="2"/>
       <c r="Q767" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R767" s="3">
         <v>45445</v>
@@ -31098,7 +31094,7 @@
       <c r="L768" s="2"/>
       <c r="M768" s="2"/>
       <c r="N768" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O768" s="2">
         <v>0</v>
@@ -31134,7 +31130,7 @@
       <c r="L769" s="2"/>
       <c r="M769" s="2"/>
       <c r="N769" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O769" s="2">
         <v>0</v>
@@ -31170,7 +31166,7 @@
       <c r="L770" s="2"/>
       <c r="M770" s="2"/>
       <c r="N770" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O770" s="2">
         <v>0</v>
@@ -31206,7 +31202,7 @@
       <c r="L771" s="2"/>
       <c r="M771" s="2"/>
       <c r="N771" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O771" s="2">
         <v>0</v>
@@ -31242,7 +31238,7 @@
       <c r="L772" s="2"/>
       <c r="M772" s="2"/>
       <c r="N772" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O772" s="2">
         <v>0</v>
@@ -31278,7 +31274,7 @@
       <c r="L773" s="2"/>
       <c r="M773" s="2"/>
       <c r="N773" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O773" s="2">
         <v>0</v>
@@ -31314,7 +31310,7 @@
       <c r="L774" s="2"/>
       <c r="M774" s="2"/>
       <c r="N774" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O774" s="2">
         <v>0</v>
@@ -31350,7 +31346,7 @@
       <c r="L775" s="2"/>
       <c r="M775" s="2"/>
       <c r="N775" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O775" s="2">
         <v>0</v>
@@ -31386,7 +31382,7 @@
       <c r="L776" s="2"/>
       <c r="M776" s="2"/>
       <c r="N776" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O776" s="2">
         <v>0</v>
@@ -31422,7 +31418,7 @@
       <c r="L777" s="2"/>
       <c r="M777" s="2"/>
       <c r="N777" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O777" s="2">
         <v>0</v>
@@ -31458,7 +31454,7 @@
       <c r="L778" s="2"/>
       <c r="M778" s="2"/>
       <c r="N778" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O778" s="2">
         <v>0</v>
@@ -31494,7 +31490,7 @@
       <c r="L779" s="2"/>
       <c r="M779" s="2"/>
       <c r="N779" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O779" s="2">
         <v>0</v>
@@ -31532,7 +31528,7 @@
       <c r="L780" s="2"/>
       <c r="M780" s="2"/>
       <c r="N780" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O780" s="2">
         <v>435</v>
@@ -31570,7 +31566,7 @@
       <c r="L781" s="2"/>
       <c r="M781" s="2"/>
       <c r="N781" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O781" s="2">
         <v>0</v>
@@ -31606,7 +31602,7 @@
       <c r="L782" s="2"/>
       <c r="M782" s="2"/>
       <c r="N782" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O782" s="2">
         <v>0</v>
@@ -31642,7 +31638,7 @@
       <c r="L783" s="2"/>
       <c r="M783" s="2"/>
       <c r="N783" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O783" s="2">
         <v>0</v>
@@ -31678,7 +31674,7 @@
       <c r="L784" s="2"/>
       <c r="M784" s="2"/>
       <c r="N784" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O784" s="2">
         <v>0</v>
@@ -31714,7 +31710,7 @@
       <c r="L785" s="2"/>
       <c r="M785" s="2"/>
       <c r="N785" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O785" s="2">
         <v>0</v>
@@ -31750,7 +31746,7 @@
       <c r="L786" s="2"/>
       <c r="M786" s="2"/>
       <c r="N786" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O786" s="2">
         <v>0</v>
@@ -31786,7 +31782,7 @@
       <c r="L787" s="2"/>
       <c r="M787" s="2"/>
       <c r="N787" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O787" s="2">
         <v>0</v>
@@ -31822,7 +31818,7 @@
       <c r="L788" s="2"/>
       <c r="M788" s="2"/>
       <c r="N788" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O788" s="2">
         <v>0</v>
@@ -31858,7 +31854,7 @@
       <c r="L789" s="2"/>
       <c r="M789" s="2"/>
       <c r="N789" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O789" s="2">
         <v>0</v>
@@ -31892,7 +31888,7 @@
       <c r="L790" s="2"/>
       <c r="M790" s="2"/>
       <c r="N790" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O790" s="2">
         <v>1865</v>
@@ -31928,7 +31924,7 @@
       <c r="L791" s="2"/>
       <c r="M791" s="2"/>
       <c r="N791" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O791" s="2">
         <v>115.1</v>
@@ -31962,7 +31958,7 @@
       <c r="L792" s="2"/>
       <c r="M792" s="2"/>
       <c r="N792" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O792" s="2">
         <v>1003</v>
@@ -31996,7 +31992,7 @@
       <c r="L793" s="2"/>
       <c r="M793" s="2"/>
       <c r="N793" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O793" s="2">
         <v>102.25</v>
@@ -32030,7 +32026,7 @@
       <c r="L794" s="2"/>
       <c r="M794" s="2"/>
       <c r="N794" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O794" s="2">
         <v>514.41999999999996</v>
@@ -32064,14 +32060,14 @@
       <c r="L795" s="2"/>
       <c r="M795" s="2"/>
       <c r="N795" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O795" s="2">
         <v>0</v>
       </c>
       <c r="P795" s="2"/>
       <c r="Q795" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R795" s="3">
         <v>45445</v>
@@ -32100,12 +32096,12 @@
       <c r="L796" s="2"/>
       <c r="M796" s="2"/>
       <c r="N796" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O796" s="2"/>
       <c r="P796" s="2"/>
       <c r="Q796" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R796" s="3">
         <v>45445</v>
@@ -32134,7 +32130,7 @@
       <c r="L797" s="2"/>
       <c r="M797" s="2"/>
       <c r="N797" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O797" s="2">
         <v>668.4</v>
@@ -32170,7 +32166,7 @@
       <c r="L798" s="2"/>
       <c r="M798" s="2"/>
       <c r="N798" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O798" s="2">
         <v>516.4</v>
@@ -32232,7 +32228,7 @@
       <c r="L800" s="2"/>
       <c r="M800" s="2"/>
       <c r="N800" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O800" s="2">
         <v>98.7</v>
@@ -32266,14 +32262,14 @@
       <c r="L801" s="2"/>
       <c r="M801" s="2"/>
       <c r="N801" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O801" s="2">
         <v>0</v>
       </c>
       <c r="P801" s="2"/>
       <c r="Q801" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R801" s="3">
         <v>45445</v>
@@ -32306,14 +32302,14 @@
       <c r="L802" s="2"/>
       <c r="M802" s="2"/>
       <c r="N802" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O802" s="2">
         <v>0</v>
       </c>
       <c r="P802" s="2"/>
       <c r="Q802" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R802" s="3">
         <v>45445</v>
@@ -32342,14 +32338,14 @@
       <c r="L803" s="2"/>
       <c r="M803" s="2"/>
       <c r="N803" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O803" s="2">
         <v>0</v>
       </c>
       <c r="P803" s="2"/>
       <c r="Q803" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R803" s="3">
         <v>45445</v>
@@ -32378,7 +32374,7 @@
       <c r="L804" s="2"/>
       <c r="M804" s="2"/>
       <c r="N804" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O804" s="2">
         <v>348.8</v>
@@ -32414,7 +32410,7 @@
       <c r="L805" s="2"/>
       <c r="M805" s="2"/>
       <c r="N805" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O805" s="2">
         <v>850.5</v>
@@ -32448,7 +32444,7 @@
       <c r="L806" s="2"/>
       <c r="M806" s="2"/>
       <c r="N806" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O806" s="2">
         <v>840.6</v>
@@ -32482,7 +32478,7 @@
       <c r="L807" s="2"/>
       <c r="M807" s="2"/>
       <c r="N807" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O807" s="2">
         <v>550</v>
@@ -32516,7 +32512,7 @@
       <c r="L808" s="2"/>
       <c r="M808" s="2"/>
       <c r="N808" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O808" s="2">
         <v>385.7</v>
@@ -32550,7 +32546,7 @@
       <c r="L809" s="2"/>
       <c r="M809" s="2"/>
       <c r="N809" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O809" s="2">
         <v>1370</v>
@@ -32584,14 +32580,14 @@
       <c r="L810" s="2"/>
       <c r="M810" s="2"/>
       <c r="N810" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O810" s="2">
         <v>0</v>
       </c>
       <c r="P810" s="2"/>
       <c r="Q810" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R810" s="3">
         <v>45445</v>
@@ -32622,14 +32618,14 @@
       <c r="L811" s="2"/>
       <c r="M811" s="2"/>
       <c r="N811" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O811" s="2">
         <v>0</v>
       </c>
       <c r="P811" s="2"/>
       <c r="Q811" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R811" s="3">
         <v>45445</v>
@@ -32658,14 +32654,14 @@
       <c r="L812" s="2"/>
       <c r="M812" s="2"/>
       <c r="N812" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O812" s="2">
         <v>0</v>
       </c>
       <c r="P812" s="2"/>
       <c r="Q812" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R812" s="3">
         <v>45445</v>
@@ -32696,14 +32692,14 @@
       <c r="L813" s="2"/>
       <c r="M813" s="2"/>
       <c r="N813" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O813" s="2">
         <v>0</v>
       </c>
       <c r="P813" s="2"/>
       <c r="Q813" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R813" s="3">
         <v>45445</v>
@@ -32734,14 +32730,14 @@
       <c r="L814" s="2"/>
       <c r="M814" s="2"/>
       <c r="N814" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O814" s="2">
         <v>640.9</v>
       </c>
       <c r="P814" s="2"/>
       <c r="Q814" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="R814" s="3">
         <v>45445</v>
@@ -32772,14 +32768,14 @@
       <c r="L815" s="2"/>
       <c r="M815" s="2"/>
       <c r="N815" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O815" s="2">
         <v>839.71</v>
       </c>
       <c r="P815" s="2"/>
       <c r="Q815" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="R815" s="3">
         <v>45445</v>
@@ -32791,7 +32787,7 @@
         <v>408</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -32809,7 +32805,7 @@
       <c r="O816" s="2"/>
       <c r="P816" s="2"/>
       <c r="Q816" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R816" s="3">
         <v>45445</v>
@@ -32840,7 +32836,7 @@
       <c r="L817" s="2"/>
       <c r="M817" s="2"/>
       <c r="N817" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O817" s="2">
         <v>1920</v>
@@ -32880,7 +32876,7 @@
       <c r="L818" s="2"/>
       <c r="M818" s="2"/>
       <c r="N818" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O818" s="2">
         <v>543.63</v>
@@ -32946,7 +32942,7 @@
       <c r="L820" s="2"/>
       <c r="M820" s="2"/>
       <c r="N820" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O820" s="2">
         <v>875</v>
@@ -32982,7 +32978,7 @@
       <c r="L821" s="2"/>
       <c r="M821" s="2"/>
       <c r="N821" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O821" s="2">
         <v>1236.9000000000001</v>
@@ -33018,7 +33014,7 @@
       <c r="L822" s="2"/>
       <c r="M822" s="2"/>
       <c r="N822" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O822" s="2">
         <v>305</v>
@@ -33054,7 +33050,7 @@
       <c r="L823" s="2"/>
       <c r="M823" s="2"/>
       <c r="N823" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O823" s="2">
         <v>625.9</v>
@@ -33090,7 +33086,7 @@
       <c r="L824" s="2"/>
       <c r="M824" s="2"/>
       <c r="N824" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O824" s="2">
         <v>1274</v>
@@ -33128,7 +33124,7 @@
       <c r="L825" s="2"/>
       <c r="M825" s="2"/>
       <c r="N825" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O825" s="2">
         <v>1512</v>
@@ -33162,7 +33158,7 @@
       <c r="L826" s="2"/>
       <c r="M826" s="2"/>
       <c r="N826" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O826" s="2">
         <v>250</v>
@@ -33198,7 +33194,7 @@
       <c r="L827" s="2"/>
       <c r="M827" s="2"/>
       <c r="N827" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O827" s="2">
         <v>411.23</v>
@@ -33236,14 +33232,14 @@
       <c r="L828" s="2"/>
       <c r="M828" s="2"/>
       <c r="N828" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O828" s="2">
         <v>796.02</v>
       </c>
       <c r="P828" s="2"/>
       <c r="Q828" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R828" s="3">
         <v>45445</v>
@@ -33276,14 +33272,14 @@
       <c r="L829" s="2"/>
       <c r="M829" s="2"/>
       <c r="N829" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O829" s="2">
         <v>830.73</v>
       </c>
       <c r="P829" s="2"/>
       <c r="Q829" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R829" s="3">
         <v>45445</v>
@@ -33316,7 +33312,7 @@
       <c r="L830" s="2"/>
       <c r="M830" s="2"/>
       <c r="N830" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O830" s="2">
         <v>1162.52</v>
@@ -33352,7 +33348,7 @@
       <c r="L831" s="2"/>
       <c r="M831" s="2"/>
       <c r="N831" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O831" s="2">
         <v>1762.64</v>
@@ -33361,7 +33357,7 @@
         <v>214</v>
       </c>
       <c r="Q831" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R831" s="3">
         <v>45445</v>
@@ -33392,7 +33388,7 @@
       <c r="L832" s="2"/>
       <c r="M832" s="2"/>
       <c r="N832" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O832" s="2">
         <v>563.01</v>
@@ -33426,7 +33422,7 @@
       <c r="L833" s="2"/>
       <c r="M833" s="2"/>
       <c r="N833" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O833" s="2">
         <v>220</v>
@@ -33462,7 +33458,7 @@
       <c r="L834" s="2"/>
       <c r="M834" s="2"/>
       <c r="N834" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O834" s="2">
         <v>300</v>
@@ -33498,7 +33494,7 @@
       <c r="L835" s="2"/>
       <c r="M835" s="2"/>
       <c r="N835" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O835" s="2">
         <v>383</v>
@@ -33518,7 +33514,7 @@
         <v>61</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
@@ -33535,7 +33531,7 @@
       </c>
       <c r="P836" s="2"/>
       <c r="Q836" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R836" s="3">
         <v>45445</v>
@@ -33564,7 +33560,7 @@
       <c r="L837" s="2"/>
       <c r="M837" s="2"/>
       <c r="N837" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O837" s="2">
         <v>300</v>
@@ -33598,7 +33594,7 @@
       <c r="L838" s="2"/>
       <c r="M838" s="2"/>
       <c r="N838" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O838" s="2">
         <v>615.09</v>
@@ -33634,7 +33630,7 @@
       <c r="L839" s="2"/>
       <c r="M839" s="2"/>
       <c r="N839" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O839" s="2">
         <v>655.19000000000005</v>
@@ -33670,14 +33666,14 @@
       <c r="L840" s="2"/>
       <c r="M840" s="2"/>
       <c r="N840" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O840" s="2">
         <v>0</v>
       </c>
       <c r="P840" s="2"/>
       <c r="Q840" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R840" s="3">
         <v>45445</v>
@@ -33740,7 +33736,7 @@
       <c r="L842" s="2"/>
       <c r="M842" s="2"/>
       <c r="N842" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O842" s="2">
         <v>1050</v>
@@ -33778,7 +33774,7 @@
       <c r="L843" s="2"/>
       <c r="M843" s="2"/>
       <c r="N843" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O843" s="2">
         <v>2020</v>
@@ -33787,7 +33783,7 @@
         <v>214</v>
       </c>
       <c r="Q843" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R843" s="3">
         <v>45445</v>
@@ -33818,14 +33814,14 @@
       <c r="L844" s="2"/>
       <c r="M844" s="2"/>
       <c r="N844" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O844" s="2">
         <v>1439.09</v>
       </c>
       <c r="P844" s="2"/>
       <c r="Q844" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R844" s="3">
         <v>45445</v>
@@ -33854,14 +33850,14 @@
       <c r="L845" s="2"/>
       <c r="M845" s="2"/>
       <c r="N845" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O845" s="2">
         <v>0</v>
       </c>
       <c r="P845" s="2"/>
       <c r="Q845" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R845" s="3">
         <v>45445</v>
@@ -33966,7 +33962,7 @@
       <c r="L848" s="2"/>
       <c r="M848" s="2"/>
       <c r="N848" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O848" s="2">
         <v>305.5</v>
@@ -34002,7 +33998,7 @@
       <c r="L849" s="2"/>
       <c r="M849" s="2"/>
       <c r="N849" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O849" s="2">
         <v>384.3</v>
@@ -34040,7 +34036,7 @@
       <c r="L850" s="2"/>
       <c r="M850" s="2"/>
       <c r="N850" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O850" s="2">
         <v>967.7</v>
@@ -34078,14 +34074,14 @@
       <c r="L851" s="2"/>
       <c r="M851" s="2"/>
       <c r="N851" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O851" s="2">
         <v>497.3</v>
       </c>
       <c r="P851" s="2"/>
       <c r="Q851" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R851" s="3">
         <v>45445</v>
@@ -34114,14 +34110,14 @@
       <c r="L852" s="2"/>
       <c r="M852" s="2"/>
       <c r="N852" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O852" s="2">
         <v>209</v>
       </c>
       <c r="P852" s="2"/>
       <c r="Q852" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R852" s="3">
         <v>45445</v>
@@ -34152,7 +34148,7 @@
       <c r="L853" s="2"/>
       <c r="M853" s="2"/>
       <c r="N853" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O853" s="2">
         <v>249</v>
@@ -34186,7 +34182,7 @@
       <c r="L854" s="2"/>
       <c r="M854" s="2"/>
       <c r="N854" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O854" s="2">
         <v>249.6</v>
@@ -34224,7 +34220,7 @@
       <c r="L855" s="2"/>
       <c r="M855" s="2"/>
       <c r="N855" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O855" s="2">
         <v>498.89</v>
@@ -34292,14 +34288,14 @@
       <c r="L857" s="2"/>
       <c r="M857" s="2"/>
       <c r="N857" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O857" s="2">
         <v>2492.3000000000002</v>
       </c>
       <c r="P857" s="2"/>
       <c r="Q857" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R857" s="3">
         <v>45445</v>
@@ -34398,7 +34394,7 @@
       <c r="L860" s="2"/>
       <c r="M860" s="2"/>
       <c r="N860" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O860" s="2">
         <v>450</v>
@@ -34464,7 +34460,7 @@
       <c r="L862" s="2"/>
       <c r="M862" s="2"/>
       <c r="N862" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O862" s="2">
         <v>1665</v>
@@ -34532,7 +34528,7 @@
       <c r="L864" s="2"/>
       <c r="M864" s="2"/>
       <c r="N864" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O864" s="2">
         <v>300</v>
@@ -34568,7 +34564,7 @@
       <c r="L865" s="2"/>
       <c r="M865" s="2"/>
       <c r="N865" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O865" s="2">
         <v>240</v>
@@ -34604,7 +34600,7 @@
       <c r="L866" s="2"/>
       <c r="M866" s="2"/>
       <c r="N866" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O866" s="2">
         <v>200</v>
@@ -34640,7 +34636,7 @@
       <c r="L867" s="2"/>
       <c r="M867" s="2"/>
       <c r="N867" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="O867" s="2">
         <v>145</v>
@@ -34676,14 +34672,14 @@
       <c r="L868" s="2"/>
       <c r="M868" s="2"/>
       <c r="N868" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O868" s="2">
         <v>0</v>
       </c>
       <c r="P868" s="2"/>
       <c r="Q868" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R868" s="3">
         <v>45462</v>
@@ -34714,7 +34710,7 @@
       <c r="L869" s="2"/>
       <c r="M869" s="2"/>
       <c r="N869" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O869" s="2">
         <v>79.760000000000005</v>
@@ -34750,7 +34746,7 @@
       <c r="L870" s="2"/>
       <c r="M870" s="2"/>
       <c r="N870" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O870" s="2">
         <v>62.9</v>
@@ -34786,7 +34782,7 @@
       <c r="L871" s="2"/>
       <c r="M871" s="2"/>
       <c r="N871" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O871" s="2">
         <v>67.319999999999993</v>
@@ -34820,7 +34816,7 @@
       <c r="L872" s="2"/>
       <c r="M872" s="2"/>
       <c r="N872" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O872" s="2">
         <v>85.8</v>
@@ -34854,7 +34850,7 @@
       <c r="L873" s="2"/>
       <c r="M873" s="2"/>
       <c r="N873" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O873" s="2">
         <v>81.8</v>
@@ -34888,7 +34884,7 @@
       <c r="L874" s="2"/>
       <c r="M874" s="2"/>
       <c r="N874" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O874" s="2">
         <v>105</v>
@@ -34924,14 +34920,14 @@
       <c r="L875" s="2"/>
       <c r="M875" s="2"/>
       <c r="N875" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O875" s="2">
         <v>20</v>
       </c>
       <c r="P875" s="2"/>
       <c r="Q875" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R875" s="3">
         <v>45462</v>
@@ -34962,7 +34958,7 @@
       <c r="L876" s="2"/>
       <c r="M876" s="2"/>
       <c r="N876" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O876" s="2">
         <v>220</v>
@@ -34998,7 +34994,7 @@
       <c r="L877" s="2"/>
       <c r="M877" s="2"/>
       <c r="N877" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O877" s="2">
         <v>155</v>
@@ -35034,7 +35030,7 @@
       <c r="L878" s="2"/>
       <c r="M878" s="2"/>
       <c r="N878" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O878" s="2">
         <v>285</v>
@@ -35070,7 +35066,7 @@
       <c r="L879" s="2"/>
       <c r="M879" s="2"/>
       <c r="N879" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O879" s="2">
         <v>1170</v>
@@ -35106,7 +35102,7 @@
       <c r="L880" s="2"/>
       <c r="M880" s="2"/>
       <c r="N880" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O880" s="2">
         <v>590</v>
@@ -35115,7 +35111,7 @@
         <v>214</v>
       </c>
       <c r="Q880" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R880" s="3">
         <v>45462</v>
@@ -35146,7 +35142,7 @@
       <c r="L881" s="2"/>
       <c r="M881" s="2"/>
       <c r="N881" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O881" s="2">
         <v>458.08</v>
@@ -35182,7 +35178,7 @@
       <c r="L882" s="2"/>
       <c r="M882" s="2"/>
       <c r="N882" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O882" s="2">
         <v>367.17</v>
@@ -35216,7 +35212,7 @@
       <c r="L883" s="2"/>
       <c r="M883" s="2"/>
       <c r="N883" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O883" s="2">
         <v>333</v>
@@ -35250,7 +35246,7 @@
       <c r="L884" s="2"/>
       <c r="M884" s="2"/>
       <c r="N884" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O884" s="2">
         <v>500</v>
@@ -35286,7 +35282,7 @@
       <c r="L885" s="2"/>
       <c r="M885" s="2"/>
       <c r="N885" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O885" s="2">
         <v>116.26</v>
@@ -35320,7 +35316,7 @@
       <c r="L886" s="2"/>
       <c r="M886" s="2"/>
       <c r="N886" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O886" s="2">
         <v>863</v>
@@ -35354,14 +35350,14 @@
       <c r="L887" s="2"/>
       <c r="M887" s="2"/>
       <c r="N887" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O887" s="2">
         <v>0</v>
       </c>
       <c r="P887" s="2"/>
       <c r="Q887" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R887" s="3">
         <v>45462</v>
@@ -35390,14 +35386,14 @@
       <c r="L888" s="2"/>
       <c r="M888" s="2"/>
       <c r="N888" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O888" s="2">
         <v>0</v>
       </c>
       <c r="P888" s="2"/>
       <c r="Q888" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R888" s="3">
         <v>45462</v>
@@ -35426,7 +35422,7 @@
       <c r="L889" s="2"/>
       <c r="M889" s="2"/>
       <c r="N889" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O889" s="2">
         <v>447.75</v>
@@ -35460,7 +35456,7 @@
       <c r="L890" s="2"/>
       <c r="M890" s="2"/>
       <c r="N890" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O890" s="2">
         <v>335</v>
@@ -35496,7 +35492,7 @@
       <c r="L891" s="2"/>
       <c r="M891" s="2"/>
       <c r="N891" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O891" s="2">
         <v>279.5</v>
@@ -35562,7 +35558,7 @@
       <c r="L893" s="2"/>
       <c r="M893" s="2"/>
       <c r="N893" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O893" s="2">
         <v>160</v>
@@ -35598,7 +35594,7 @@
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
       <c r="N894" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O894" s="2">
         <v>825</v>
@@ -35632,7 +35628,7 @@
       <c r="L895" s="2"/>
       <c r="M895" s="2"/>
       <c r="N895" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O895" s="2">
         <v>357</v>
@@ -35666,7 +35662,7 @@
       <c r="L896" s="2"/>
       <c r="M896" s="2"/>
       <c r="N896" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O896" s="2">
         <v>255</v>
@@ -35732,7 +35728,7 @@
       <c r="L898" s="2"/>
       <c r="M898" s="2"/>
       <c r="N898" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O898" s="2">
         <v>120</v>
@@ -35766,7 +35762,7 @@
       <c r="L899" s="2"/>
       <c r="M899" s="2"/>
       <c r="N899" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O899" s="2">
         <v>606</v>
@@ -35858,14 +35854,14 @@
       <c r="L902" s="2"/>
       <c r="M902" s="2"/>
       <c r="N902" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O902" s="2">
         <v>0</v>
       </c>
       <c r="P902" s="2"/>
       <c r="Q902" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R902" s="3">
         <v>45462</v>
@@ -35894,7 +35890,7 @@
       <c r="L903" s="2"/>
       <c r="M903" s="2"/>
       <c r="N903" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O903" s="2">
         <v>344.83</v>
@@ -35928,7 +35924,7 @@
       <c r="L904" s="2"/>
       <c r="M904" s="2"/>
       <c r="N904" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O904" s="2">
         <v>1020</v>
@@ -35964,7 +35960,7 @@
       <c r="L905" s="2"/>
       <c r="M905" s="2"/>
       <c r="N905" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O905" s="2">
         <v>370</v>
@@ -35998,7 +35994,7 @@
       <c r="L906" s="2"/>
       <c r="M906" s="2"/>
       <c r="N906" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O906" s="2">
         <v>722.5</v>
@@ -36034,14 +36030,14 @@
       <c r="L907" s="2"/>
       <c r="M907" s="2"/>
       <c r="N907" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O907" s="2">
         <v>0</v>
       </c>
       <c r="P907" s="2"/>
       <c r="Q907" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="R907" s="3">
         <v>45462</v>
@@ -36072,7 +36068,7 @@
       <c r="L908" s="2"/>
       <c r="M908" s="2"/>
       <c r="N908" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O908" s="2">
         <v>330</v>
@@ -36108,7 +36104,7 @@
       <c r="L909" s="2"/>
       <c r="M909" s="2"/>
       <c r="N909" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O909" s="2">
         <v>155</v>
@@ -36144,7 +36140,7 @@
       <c r="L910" s="2"/>
       <c r="M910" s="2"/>
       <c r="N910" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O910" s="2">
         <v>1240</v>
@@ -36208,14 +36204,14 @@
       <c r="L912" s="2"/>
       <c r="M912" s="2"/>
       <c r="N912" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O912" s="2">
         <v>0</v>
       </c>
       <c r="P912" s="2"/>
       <c r="Q912" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="R912" s="3">
         <v>45462</v>
@@ -36246,7 +36242,7 @@
       <c r="L913" s="2"/>
       <c r="M913" s="2"/>
       <c r="N913" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O913" s="2">
         <v>1100</v>
@@ -36280,7 +36276,7 @@
       <c r="L914" s="2"/>
       <c r="M914" s="2"/>
       <c r="N914" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O914" s="2">
         <v>511</v>
@@ -36314,7 +36310,7 @@
       <c r="L915" s="2"/>
       <c r="M915" s="2"/>
       <c r="N915" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O915" s="2">
         <v>475</v>
@@ -36348,7 +36344,7 @@
       <c r="L916" s="2"/>
       <c r="M916" s="2"/>
       <c r="N916" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O916" s="2">
         <v>385</v>
@@ -36384,7 +36380,7 @@
       <c r="L917" s="2"/>
       <c r="M917" s="2"/>
       <c r="N917" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O917" s="2">
         <v>1071.5</v>
@@ -36446,7 +36442,7 @@
       <c r="L919" s="2"/>
       <c r="M919" s="2"/>
       <c r="N919" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O919" s="2">
         <v>2035</v>
@@ -36482,7 +36478,7 @@
       <c r="L920" s="2"/>
       <c r="M920" s="2"/>
       <c r="N920" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O920" s="2">
         <v>450</v>
@@ -36516,7 +36512,7 @@
       <c r="L921" s="2"/>
       <c r="M921" s="2"/>
       <c r="N921" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O921" s="2">
         <v>530</v>
@@ -36584,7 +36580,7 @@
       <c r="L923" s="2"/>
       <c r="M923" s="2"/>
       <c r="N923" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O923" s="2">
         <v>1120</v>
@@ -36620,7 +36616,7 @@
       <c r="L924" s="2"/>
       <c r="M924" s="2"/>
       <c r="N924" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O924" s="2">
         <v>365</v>
@@ -36629,7 +36625,7 @@
         <v>214</v>
       </c>
       <c r="Q924" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="R924" s="3">
         <v>45462</v>
@@ -36658,7 +36654,7 @@
       <c r="L925" s="2"/>
       <c r="M925" s="2"/>
       <c r="N925" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O925" s="2">
         <v>606</v>
@@ -36726,7 +36722,7 @@
       <c r="L927" s="2"/>
       <c r="M927" s="2"/>
       <c r="N927" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O927" s="2">
         <v>1015</v>
@@ -36762,7 +36758,7 @@
       <c r="L928" s="2"/>
       <c r="M928" s="2"/>
       <c r="N928" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O928" s="2">
         <v>325</v>
@@ -36798,7 +36794,7 @@
       <c r="L929" s="2"/>
       <c r="M929" s="2"/>
       <c r="N929" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O929" s="2">
         <v>312.5</v>
@@ -36832,7 +36828,7 @@
       <c r="L930" s="2"/>
       <c r="M930" s="2"/>
       <c r="N930" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O930" s="2">
         <v>357</v>
@@ -36866,7 +36862,7 @@
       <c r="L931" s="2"/>
       <c r="M931" s="2"/>
       <c r="N931" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O931" s="2">
         <v>945</v>
@@ -36900,7 +36896,7 @@
       <c r="L932" s="2"/>
       <c r="M932" s="2"/>
       <c r="N932" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O932" s="2">
         <v>1875</v>
@@ -36909,7 +36905,7 @@
         <v>214</v>
       </c>
       <c r="Q932" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="R932" s="3">
         <v>45462</v>
@@ -36938,7 +36934,7 @@
       <c r="L933" s="2"/>
       <c r="M933" s="2"/>
       <c r="N933" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O933" s="2">
         <v>1317</v>
@@ -37000,7 +36996,7 @@
       <c r="L935" s="2"/>
       <c r="M935" s="2"/>
       <c r="N935" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O935" s="2">
         <v>548.9</v>
@@ -37034,7 +37030,7 @@
       <c r="L936" s="2"/>
       <c r="M936" s="2"/>
       <c r="N936" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O936" s="2">
         <v>1366.1</v>
@@ -37068,7 +37064,7 @@
       <c r="L937" s="2"/>
       <c r="M937" s="2"/>
       <c r="N937" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O937" s="2">
         <v>455</v>
@@ -37102,14 +37098,14 @@
       <c r="L938" s="2"/>
       <c r="M938" s="2"/>
       <c r="N938" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O938" s="2">
         <v>0</v>
       </c>
       <c r="P938" s="2"/>
       <c r="Q938" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R938" s="3">
         <v>45462</v>
@@ -37138,14 +37134,14 @@
       <c r="L939" s="2"/>
       <c r="M939" s="2"/>
       <c r="N939" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O939" s="2">
         <v>0</v>
       </c>
       <c r="P939" s="2"/>
       <c r="Q939" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R939" s="3">
         <v>45462</v>
@@ -37174,7 +37170,7 @@
       <c r="L940" s="2"/>
       <c r="M940" s="2"/>
       <c r="N940" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O940" s="2">
         <v>211.31</v>
@@ -37208,7 +37204,7 @@
       <c r="L941" s="2"/>
       <c r="M941" s="2"/>
       <c r="N941" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O941" s="2">
         <v>211</v>
@@ -37242,7 +37238,7 @@
       <c r="L942" s="2"/>
       <c r="M942" s="2"/>
       <c r="N942" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O942" s="2">
         <v>734</v>
@@ -37276,7 +37272,7 @@
       <c r="L943" s="2"/>
       <c r="M943" s="2"/>
       <c r="N943" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O943" s="2">
         <v>340</v>
@@ -37314,7 +37310,7 @@
       <c r="L944" s="2"/>
       <c r="M944" s="2"/>
       <c r="N944" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O944" s="2">
         <v>965.56</v>
@@ -37348,7 +37344,7 @@
       <c r="L945" s="2"/>
       <c r="M945" s="2"/>
       <c r="N945" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O945" s="2">
         <v>100</v>
@@ -37384,7 +37380,7 @@
       <c r="L946" s="2"/>
       <c r="M946" s="2"/>
       <c r="N946" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O946" s="2">
         <v>175</v>
@@ -37420,7 +37416,7 @@
       <c r="L947" s="2"/>
       <c r="M947" s="2"/>
       <c r="N947" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O947" s="2">
         <v>95.8</v>
@@ -37454,7 +37450,7 @@
       <c r="L948" s="2"/>
       <c r="M948" s="2"/>
       <c r="N948" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O948" s="2">
         <v>54.76</v>
@@ -37516,7 +37512,7 @@
       <c r="L950" s="2"/>
       <c r="M950" s="2"/>
       <c r="N950" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O950" s="2">
         <v>325</v>
@@ -37552,7 +37548,7 @@
       <c r="L951" s="2"/>
       <c r="M951" s="2"/>
       <c r="N951" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O951" s="2">
         <v>775</v>
@@ -37586,7 +37582,7 @@
       <c r="L952" s="2"/>
       <c r="M952" s="2"/>
       <c r="N952" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O952" s="2">
         <v>700</v>
@@ -37622,7 +37618,7 @@
       <c r="L953" s="2"/>
       <c r="M953" s="2"/>
       <c r="N953" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O953" s="2">
         <v>0</v>
@@ -37658,7 +37654,7 @@
       <c r="L954" s="2"/>
       <c r="M954" s="2"/>
       <c r="N954" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O954" s="2">
         <v>990</v>
@@ -37694,7 +37690,7 @@
       <c r="L955" s="2"/>
       <c r="M955" s="2"/>
       <c r="N955" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O955" s="2">
         <v>590</v>
@@ -37730,7 +37726,7 @@
       <c r="L956" s="2"/>
       <c r="M956" s="2"/>
       <c r="N956" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O956" s="2">
         <v>930</v>
@@ -37794,7 +37790,7 @@
       <c r="L958" s="2"/>
       <c r="M958" s="2"/>
       <c r="N958" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O958" s="2">
         <v>2907</v>
@@ -37828,7 +37824,7 @@
       <c r="L959" s="2"/>
       <c r="M959" s="2"/>
       <c r="N959" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O959" s="2">
         <v>1770</v>
@@ -37866,7 +37862,7 @@
       <c r="L960" s="2"/>
       <c r="M960" s="2"/>
       <c r="N960" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O960" s="2">
         <v>1906</v>
@@ -37928,7 +37924,7 @@
       <c r="L962" s="2"/>
       <c r="M962" s="2"/>
       <c r="N962" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O962" s="2">
         <v>1060</v>
@@ -37962,7 +37958,7 @@
       <c r="L963" s="2"/>
       <c r="M963" s="2"/>
       <c r="N963" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O963" s="2">
         <v>2120</v>
@@ -38028,7 +38024,7 @@
       <c r="L965" s="2"/>
       <c r="M965" s="2"/>
       <c r="N965" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O965" s="2">
         <v>1859.9</v>
@@ -38062,7 +38058,7 @@
       <c r="L966" s="2"/>
       <c r="M966" s="2"/>
       <c r="N966" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O966" s="2">
         <v>930</v>
@@ -38071,7 +38067,7 @@
         <v>214</v>
       </c>
       <c r="Q966" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R966" s="3">
         <v>45462</v>
@@ -38162,7 +38158,7 @@
       <c r="L969" s="2"/>
       <c r="M969" s="2"/>
       <c r="N969" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O969" s="2">
         <v>601</v>
@@ -38200,7 +38196,7 @@
       <c r="L970" s="2"/>
       <c r="M970" s="2"/>
       <c r="N970" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O970" s="2">
         <v>330</v>
@@ -38236,7 +38232,7 @@
       <c r="L971" s="2"/>
       <c r="M971" s="2"/>
       <c r="N971" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O971" s="2">
         <v>530</v>
@@ -38272,7 +38268,7 @@
       <c r="L972" s="2"/>
       <c r="M972" s="2"/>
       <c r="N972" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O972" s="2">
         <v>436</v>
@@ -38306,7 +38302,7 @@
       <c r="L973" s="2"/>
       <c r="M973" s="2"/>
       <c r="N973" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O973" s="2">
         <v>475</v>
@@ -38340,7 +38336,7 @@
       <c r="L974" s="2"/>
       <c r="M974" s="2"/>
       <c r="N974" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O974" s="2">
         <v>360</v>
@@ -38376,14 +38372,14 @@
       <c r="L975" s="2"/>
       <c r="M975" s="2"/>
       <c r="N975" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O975" s="2">
         <v>97.52</v>
       </c>
       <c r="P975" s="2"/>
       <c r="Q975" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R975" s="3">
         <v>45462</v>
@@ -38421,7 +38417,7 @@
       </c>
       <c r="P976" s="2"/>
       <c r="Q976" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R976" s="3">
         <v>45462</v>
@@ -38452,7 +38448,7 @@
       <c r="L977" s="2"/>
       <c r="M977" s="2"/>
       <c r="N977" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O977" s="2">
         <v>800</v>
@@ -38476,7 +38472,7 @@
       </c>
       <c r="E978" s="2"/>
       <c r="F978" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G978" s="2"/>
       <c r="H978" s="2"/>
@@ -38499,7 +38495,7 @@
         <v>214</v>
       </c>
       <c r="Q978" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R978" s="3">
         <v>45462</v>
@@ -38556,7 +38552,7 @@
       <c r="L980" s="2"/>
       <c r="M980" s="2"/>
       <c r="N980" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O980" s="2">
         <v>640</v>
@@ -38590,7 +38586,7 @@
       <c r="L981" s="2"/>
       <c r="M981" s="2"/>
       <c r="N981" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O981" s="2">
         <v>62.6</v>
@@ -38652,7 +38648,7 @@
       <c r="L983" s="2"/>
       <c r="M983" s="2"/>
       <c r="N983" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O983" s="2">
         <v>208</v>
@@ -38686,7 +38682,7 @@
       <c r="L984" s="2"/>
       <c r="M984" s="2"/>
       <c r="N984" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O984" s="2">
         <v>210</v>
@@ -38722,14 +38718,14 @@
       <c r="L985" s="2"/>
       <c r="M985" s="2"/>
       <c r="N985" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O985" s="2">
         <v>0</v>
       </c>
       <c r="P985" s="2"/>
       <c r="Q985" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R985" s="3">
         <v>45462</v>
@@ -38758,7 +38754,7 @@
       <c r="L986" s="2"/>
       <c r="M986" s="2"/>
       <c r="N986" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O986" s="2">
         <v>319</v>
@@ -38796,7 +38792,7 @@
       <c r="L987" s="2"/>
       <c r="M987" s="2"/>
       <c r="N987" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O987" s="2">
         <v>757.85</v>
@@ -38858,7 +38854,7 @@
       <c r="L989" s="2"/>
       <c r="M989" s="2"/>
       <c r="N989" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O989" s="2">
         <v>175</v>
@@ -38994,7 +38990,7 @@
       <c r="L993" s="2"/>
       <c r="M993" s="2"/>
       <c r="N993" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O993" s="2">
         <v>382.2</v>
@@ -39028,7 +39024,7 @@
       <c r="L994" s="2"/>
       <c r="M994" s="2"/>
       <c r="N994" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O994" s="2">
         <v>1424</v>
@@ -39064,7 +39060,7 @@
       <c r="L995" s="2"/>
       <c r="M995" s="2"/>
       <c r="N995" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O995" s="2">
         <v>321.2</v>
@@ -39098,7 +39094,7 @@
       <c r="L996" s="2"/>
       <c r="M996" s="2"/>
       <c r="N996" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O996" s="2">
         <v>300</v>
@@ -39166,7 +39162,7 @@
       <c r="L998" s="2"/>
       <c r="M998" s="2"/>
       <c r="N998" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O998" s="2">
         <v>2145</v>
@@ -39202,7 +39198,7 @@
       <c r="L999" s="2"/>
       <c r="M999" s="2"/>
       <c r="N999" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O999" s="2">
         <v>1450</v>
@@ -39238,7 +39234,7 @@
       <c r="L1000" s="2"/>
       <c r="M1000" s="2"/>
       <c r="N1000" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1000" s="2">
         <v>900</v>
@@ -39272,7 +39268,7 @@
       <c r="L1001" s="2"/>
       <c r="M1001" s="2"/>
       <c r="N1001" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O1001" s="2">
         <v>920</v>
@@ -39308,7 +39304,7 @@
       <c r="L1002" s="2"/>
       <c r="M1002" s="2"/>
       <c r="N1002" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1002" s="2">
         <v>980</v>
@@ -39342,14 +39338,14 @@
       <c r="L1003" s="2"/>
       <c r="M1003" s="2"/>
       <c r="N1003" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O1003" s="2">
         <v>0</v>
       </c>
       <c r="P1003" s="2"/>
       <c r="Q1003" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R1003" s="3">
         <v>45462</v>
@@ -39378,7 +39374,7 @@
       <c r="L1004" s="2"/>
       <c r="M1004" s="2"/>
       <c r="N1004" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1004" s="2">
         <v>439.55</v>
@@ -39412,7 +39408,7 @@
       <c r="L1005" s="2"/>
       <c r="M1005" s="2"/>
       <c r="N1005" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O1005" s="2">
         <v>245.6</v>
@@ -39448,7 +39444,7 @@
       <c r="L1006" s="2"/>
       <c r="M1006" s="2"/>
       <c r="N1006" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O1006" s="2">
         <v>1064</v>
@@ -39484,7 +39480,7 @@
       <c r="L1007" s="2"/>
       <c r="M1007" s="2"/>
       <c r="N1007" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O1007" s="2">
         <v>685</v>
@@ -39522,7 +39518,7 @@
       <c r="L1008" s="2"/>
       <c r="M1008" s="2"/>
       <c r="N1008" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1008" s="2">
         <v>1578</v>
@@ -39642,7 +39638,7 @@
       <c r="L1012" s="2"/>
       <c r="M1012" s="2"/>
       <c r="N1012" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O1012" s="2">
         <v>864.27</v>
@@ -39678,7 +39674,7 @@
       <c r="L1013" s="2"/>
       <c r="M1013" s="2"/>
       <c r="N1013" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O1013" s="2">
         <v>835.82</v>
@@ -39740,7 +39736,7 @@
       <c r="L1015" s="2"/>
       <c r="M1015" s="2"/>
       <c r="N1015" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O1015" s="2">
         <v>300</v>
@@ -39774,7 +39770,7 @@
       <c r="L1016" s="2"/>
       <c r="M1016" s="2"/>
       <c r="N1016" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O1016" s="2">
         <v>420</v>
@@ -39808,7 +39804,7 @@
       <c r="L1017" s="2"/>
       <c r="M1017" s="2"/>
       <c r="N1017" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O1017" s="2">
         <v>1400</v>
@@ -39844,7 +39840,7 @@
       <c r="L1018" s="2"/>
       <c r="M1018" s="2"/>
       <c r="N1018" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O1018" s="2">
         <v>605.6</v>
@@ -39978,7 +39974,7 @@
       <c r="L1022" s="2"/>
       <c r="M1022" s="2"/>
       <c r="N1022" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O1022" s="2">
         <v>330</v>
@@ -40012,7 +40008,7 @@
       <c r="L1023" s="2"/>
       <c r="M1023" s="2"/>
       <c r="N1023" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O1023" s="2">
         <v>2240</v>
@@ -40050,7 +40046,7 @@
       <c r="L1024" s="2"/>
       <c r="M1024" s="2"/>
       <c r="N1024" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O1024" s="2">
         <v>1860</v>
@@ -40084,7 +40080,7 @@
       <c r="L1025" s="2"/>
       <c r="M1025" s="2"/>
       <c r="N1025" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O1025" s="2">
         <v>185</v>
@@ -40118,7 +40114,7 @@
       <c r="L1026" s="2"/>
       <c r="M1026" s="2"/>
       <c r="N1026" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O1026" s="2">
         <v>258</v>
@@ -40152,7 +40148,7 @@
       <c r="L1027" s="2"/>
       <c r="M1027" s="2"/>
       <c r="N1027" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O1027" s="2">
         <v>776</v>
@@ -40188,7 +40184,7 @@
       <c r="L1028" s="2"/>
       <c r="M1028" s="2"/>
       <c r="N1028" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O1028" s="2">
         <v>290</v>
@@ -40222,7 +40218,7 @@
       <c r="L1029" s="2"/>
       <c r="M1029" s="2"/>
       <c r="N1029" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O1029" s="2">
         <v>239</v>
@@ -40256,7 +40252,7 @@
       <c r="L1030" s="2"/>
       <c r="M1030" s="2"/>
       <c r="N1030" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O1030" s="2">
         <v>430</v>
@@ -40290,7 +40286,7 @@
       <c r="L1031" s="2"/>
       <c r="M1031" s="2"/>
       <c r="N1031" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O1031" s="2">
         <v>1940</v>
@@ -40352,7 +40348,7 @@
       <c r="L1033" s="2"/>
       <c r="M1033" s="2"/>
       <c r="N1033" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O1033" s="2">
         <v>425</v>
@@ -40416,7 +40412,7 @@
       <c r="L1035" s="2"/>
       <c r="M1035" s="2"/>
       <c r="N1035" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O1035" s="2">
         <v>1071.56</v>
@@ -40450,7 +40446,7 @@
       <c r="L1036" s="2"/>
       <c r="M1036" s="2"/>
       <c r="N1036" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O1036" s="2">
         <v>1570</v>
@@ -40484,7 +40480,7 @@
       <c r="L1037" s="2"/>
       <c r="M1037" s="2"/>
       <c r="N1037" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O1037" s="2">
         <v>450</v>
@@ -40518,7 +40514,7 @@
       <c r="L1038" s="2"/>
       <c r="M1038" s="2"/>
       <c r="N1038" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O1038" s="2">
         <v>1175</v>
@@ -40554,7 +40550,7 @@
       <c r="L1039" s="2"/>
       <c r="M1039" s="2"/>
       <c r="N1039" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O1039" s="2">
         <v>462.3</v>
@@ -40588,7 +40584,7 @@
       <c r="L1040" s="2"/>
       <c r="M1040" s="2"/>
       <c r="N1040" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O1040" s="2">
         <v>200</v>
@@ -40622,7 +40618,7 @@
       <c r="L1041" s="2"/>
       <c r="M1041" s="2"/>
       <c r="N1041" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O1041" s="2">
         <v>190</v>
@@ -40656,7 +40652,7 @@
       <c r="L1042" s="2"/>
       <c r="M1042" s="2"/>
       <c r="N1042" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O1042" s="2">
         <v>60</v>
@@ -40690,7 +40686,7 @@
       <c r="L1043" s="2"/>
       <c r="M1043" s="2"/>
       <c r="N1043" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O1043" s="2">
         <v>196</v>
@@ -40724,7 +40720,7 @@
       <c r="L1044" s="2"/>
       <c r="M1044" s="2"/>
       <c r="N1044" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O1044" s="2">
         <v>334.8</v>
@@ -40758,14 +40754,14 @@
       <c r="L1045" s="2"/>
       <c r="M1045" s="2"/>
       <c r="N1045" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O1045" s="2">
         <v>0</v>
       </c>
       <c r="P1045" s="2"/>
       <c r="Q1045" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R1045" s="3">
         <v>45462</v>
@@ -40794,7 +40790,7 @@
       <c r="L1046" s="2"/>
       <c r="M1046" s="2"/>
       <c r="N1046" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O1046" s="2">
         <v>456</v>
@@ -40828,7 +40824,7 @@
       <c r="L1047" s="2"/>
       <c r="M1047" s="2"/>
       <c r="N1047" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O1047" s="2">
         <v>522.77</v>
@@ -40864,7 +40860,7 @@
       <c r="L1048" s="2"/>
       <c r="M1048" s="2"/>
       <c r="N1048" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O1048" s="2">
         <v>369.19</v>
@@ -40898,7 +40894,7 @@
       <c r="L1049" s="2"/>
       <c r="M1049" s="2"/>
       <c r="N1049" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1049" s="2">
         <v>1495</v>
@@ -40984,7 +40980,7 @@
       <c r="L1052" s="2"/>
       <c r="M1052" s="2"/>
       <c r="N1052" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1052" s="2">
         <v>1006</v>
@@ -41018,7 +41014,7 @@
       <c r="L1053" s="2"/>
       <c r="M1053" s="2"/>
       <c r="N1053" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O1053" s="2">
         <v>537</v>
@@ -41046,7 +41042,7 @@
       </c>
       <c r="G1054" s="2"/>
       <c r="H1054" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I1054" s="2"/>
       <c r="J1054" s="2" t="s">
@@ -41056,7 +41052,7 @@
       <c r="L1054" s="2"/>
       <c r="M1054" s="2"/>
       <c r="N1054" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O1054" s="2">
         <v>1560.3</v>
@@ -41090,7 +41086,7 @@
       <c r="L1055" s="2"/>
       <c r="M1055" s="2"/>
       <c r="N1055" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O1055" s="2">
         <v>380</v>
@@ -41152,7 +41148,7 @@
       <c r="L1057" s="2"/>
       <c r="M1057" s="2"/>
       <c r="N1057" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O1057" s="2">
         <v>954.73</v>
@@ -41186,7 +41182,7 @@
       <c r="L1058" s="2"/>
       <c r="M1058" s="2"/>
       <c r="N1058" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1058" s="2">
         <v>1240</v>
@@ -41220,7 +41216,7 @@
       <c r="L1059" s="2"/>
       <c r="M1059" s="2"/>
       <c r="N1059" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O1059" s="2">
         <v>650</v>
@@ -41254,7 +41250,7 @@
       <c r="L1060" s="2"/>
       <c r="M1060" s="2"/>
       <c r="N1060" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1060" s="2">
         <v>406</v>
@@ -41288,7 +41284,7 @@
       <c r="L1061" s="2"/>
       <c r="M1061" s="2"/>
       <c r="N1061" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O1061" s="2">
         <v>1440.43</v>
@@ -41350,7 +41346,7 @@
       <c r="L1063" s="2"/>
       <c r="M1063" s="2"/>
       <c r="N1063" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="O1063" s="2">
         <v>3427</v>
@@ -41386,7 +41382,7 @@
       <c r="L1064" s="2"/>
       <c r="M1064" s="2"/>
       <c r="N1064" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O1064" s="2">
         <v>2310</v>
@@ -41422,7 +41418,7 @@
       <c r="L1065" s="2"/>
       <c r="M1065" s="2"/>
       <c r="N1065" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1065" s="2">
         <v>100</v>
@@ -41456,7 +41452,7 @@
       <c r="L1066" s="2"/>
       <c r="M1066" s="2"/>
       <c r="N1066" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O1066" s="2">
         <v>595</v>
@@ -41490,7 +41486,7 @@
       <c r="L1067" s="2"/>
       <c r="M1067" s="2"/>
       <c r="N1067" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O1067" s="2">
         <v>770</v>
@@ -41526,7 +41522,7 @@
       <c r="L1068" s="2"/>
       <c r="M1068" s="2"/>
       <c r="N1068" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O1068" s="2">
         <v>2999</v>
@@ -41562,7 +41558,7 @@
       <c r="L1069" s="2"/>
       <c r="M1069" s="2"/>
       <c r="N1069" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O1069" s="2">
         <v>433.8</v>
@@ -41598,7 +41594,7 @@
       <c r="L1070" s="2"/>
       <c r="M1070" s="2"/>
       <c r="N1070" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O1070" s="2">
         <v>766.9</v>
@@ -41632,7 +41628,7 @@
       <c r="L1071" s="2"/>
       <c r="M1071" s="2"/>
       <c r="N1071" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O1071" s="2">
         <v>1590</v>
@@ -41668,7 +41664,7 @@
       <c r="L1072" s="2"/>
       <c r="M1072" s="2"/>
       <c r="N1072" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O1072" s="2">
         <v>2916</v>
@@ -41702,7 +41698,7 @@
       <c r="L1073" s="2"/>
       <c r="M1073" s="2"/>
       <c r="N1073" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="O1073" s="2">
         <v>2775</v>
@@ -41738,7 +41734,7 @@
       <c r="L1074" s="2"/>
       <c r="M1074" s="2"/>
       <c r="N1074" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O1074" s="2">
         <v>3060</v>
@@ -41774,7 +41770,7 @@
       <c r="L1075" s="2"/>
       <c r="M1075" s="2"/>
       <c r="N1075" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O1075" s="2">
         <v>1600</v>
@@ -41838,7 +41834,7 @@
       <c r="L1077" s="2"/>
       <c r="M1077" s="2"/>
       <c r="N1077" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O1077" s="2">
         <v>445.5</v>
@@ -41872,7 +41868,7 @@
       <c r="L1078" s="2"/>
       <c r="M1078" s="2"/>
       <c r="N1078" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O1078" s="2">
         <v>1840</v>
@@ -41910,14 +41906,14 @@
       <c r="L1079" s="2"/>
       <c r="M1079" s="2"/>
       <c r="N1079" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="O1079" s="2">
         <v>0</v>
       </c>
       <c r="P1079" s="2"/>
       <c r="Q1079" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R1079" s="3">
         <v>45463</v>
@@ -41946,7 +41942,7 @@
       <c r="L1080" s="2"/>
       <c r="M1080" s="2"/>
       <c r="N1080" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O1080" s="2">
         <v>2660</v>
@@ -41980,7 +41976,7 @@
       <c r="L1081" s="2"/>
       <c r="M1081" s="2"/>
       <c r="N1081" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O1081" s="2">
         <v>250</v>
@@ -42014,7 +42010,7 @@
       <c r="L1082" s="2"/>
       <c r="M1082" s="2"/>
       <c r="N1082" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1082" s="2">
         <v>250</v>
@@ -42049,7 +42045,7 @@
       </c>
       <c r="P1083" s="2"/>
       <c r="Q1083" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="R1083" s="3">
         <v>45463</v>
@@ -42080,14 +42076,14 @@
       <c r="L1084" s="2"/>
       <c r="M1084" s="2"/>
       <c r="N1084" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O1084" s="2">
         <v>522.64</v>
       </c>
       <c r="P1084" s="2"/>
       <c r="Q1084" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R1084" s="3">
         <v>45463</v>
@@ -42118,7 +42114,7 @@
       <c r="L1085" s="2"/>
       <c r="M1085" s="2"/>
       <c r="N1085" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O1085" s="2">
         <v>180</v>
@@ -42127,7 +42123,7 @@
         <v>214</v>
       </c>
       <c r="Q1085" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R1085" s="3">
         <v>45463</v>
@@ -42184,7 +42180,7 @@
       <c r="L1087" s="2"/>
       <c r="M1087" s="2"/>
       <c r="N1087" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O1087" s="2">
         <v>286.11</v>
@@ -42218,7 +42214,7 @@
       <c r="L1088" s="2"/>
       <c r="M1088" s="2"/>
       <c r="N1088" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="O1088" s="2">
         <v>222.75</v>
@@ -42252,7 +42248,7 @@
       <c r="L1089" s="2"/>
       <c r="M1089" s="2"/>
       <c r="N1089" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O1089" s="2">
         <v>198.28</v>
@@ -42286,14 +42282,14 @@
       <c r="L1090" s="2"/>
       <c r="M1090" s="2"/>
       <c r="N1090" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O1090" s="2">
         <v>0</v>
       </c>
       <c r="P1090" s="2"/>
       <c r="Q1090" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R1090" s="3">
         <v>45463</v>
@@ -42322,7 +42318,7 @@
       <c r="L1091" s="2"/>
       <c r="M1091" s="2"/>
       <c r="N1091" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O1091" s="2">
         <v>205.8</v>
@@ -42356,7 +42352,7 @@
       <c r="L1092" s="2"/>
       <c r="M1092" s="2"/>
       <c r="N1092" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O1092" s="2">
         <v>151.78</v>
@@ -42390,7 +42386,7 @@
       <c r="L1093" s="2"/>
       <c r="M1093" s="2"/>
       <c r="N1093" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O1093" s="2">
         <v>103.32</v>
@@ -42424,7 +42420,7 @@
       <c r="L1094" s="2"/>
       <c r="M1094" s="2"/>
       <c r="N1094" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O1094" s="2">
         <v>89.2</v>
@@ -42458,7 +42454,7 @@
       <c r="L1095" s="2"/>
       <c r="M1095" s="2"/>
       <c r="N1095" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1095" s="2">
         <v>211.6</v>
@@ -42492,7 +42488,7 @@
       <c r="L1096" s="2"/>
       <c r="M1096" s="2"/>
       <c r="N1096" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O1096" s="2">
         <v>184.4</v>
@@ -42556,14 +42552,14 @@
       <c r="L1098" s="2"/>
       <c r="M1098" s="2"/>
       <c r="N1098" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O1098" s="2">
         <v>467.03</v>
       </c>
       <c r="P1098" s="2"/>
       <c r="Q1098" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R1098" s="3">
         <v>45463</v>
@@ -42594,7 +42590,7 @@
       <c r="L1099" s="2"/>
       <c r="M1099" s="2"/>
       <c r="N1099" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O1099" s="2">
         <v>424</v>
@@ -42630,7 +42626,7 @@
       <c r="L1100" s="2"/>
       <c r="M1100" s="2"/>
       <c r="N1100" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O1100" s="2">
         <v>488</v>
@@ -42664,7 +42660,7 @@
       <c r="L1101" s="2"/>
       <c r="M1101" s="2"/>
       <c r="N1101" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O1101" s="2">
         <v>542</v>
@@ -42732,7 +42728,7 @@
       <c r="L1103" s="2"/>
       <c r="M1103" s="2"/>
       <c r="N1103" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O1103" s="2">
         <v>480.01</v>
@@ -42766,7 +42762,7 @@
       <c r="L1104" s="2"/>
       <c r="M1104" s="2"/>
       <c r="N1104" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O1104" s="2">
         <v>66.05</v>
@@ -42800,7 +42796,7 @@
       <c r="L1105" s="2"/>
       <c r="M1105" s="2"/>
       <c r="N1105" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O1105" s="2">
         <v>310.43</v>
@@ -42836,7 +42832,7 @@
       <c r="L1106" s="2"/>
       <c r="M1106" s="2"/>
       <c r="N1106" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O1106" s="2">
         <v>640</v>
@@ -42874,7 +42870,7 @@
       <c r="L1107" s="2"/>
       <c r="M1107" s="2"/>
       <c r="N1107" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O1107" s="2">
         <v>545</v>
@@ -42910,7 +42906,7 @@
       <c r="L1108" s="2"/>
       <c r="M1108" s="2"/>
       <c r="N1108" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O1108" s="2">
         <v>622</v>
@@ -42980,7 +42976,7 @@
       <c r="L1110" s="2"/>
       <c r="M1110" s="2"/>
       <c r="N1110" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O1110" s="2">
         <v>1039</v>
@@ -43018,7 +43014,7 @@
       <c r="L1111" s="2"/>
       <c r="M1111" s="2"/>
       <c r="N1111" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O1111" s="2">
         <v>722</v>
@@ -43055,7 +43051,7 @@
       <c r="O1112" s="2"/>
       <c r="P1112" s="2"/>
       <c r="Q1112" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="R1112" s="3">
         <v>45463</v>
@@ -43084,7 +43080,7 @@
       <c r="L1113" s="2"/>
       <c r="M1113" s="2"/>
       <c r="N1113" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O1113" s="2">
         <v>407.2</v>
@@ -43120,14 +43116,14 @@
       <c r="L1114" s="2"/>
       <c r="M1114" s="2"/>
       <c r="N1114" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="O1114" s="2">
         <v>0</v>
       </c>
       <c r="P1114" s="2"/>
       <c r="Q1114" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R1114" s="3">
         <v>45463</v>
@@ -43160,7 +43156,7 @@
       <c r="L1115" s="2"/>
       <c r="M1115" s="2"/>
       <c r="N1115" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O1115" s="2">
         <v>922</v>
@@ -43198,7 +43194,7 @@
       <c r="L1116" s="2"/>
       <c r="M1116" s="2"/>
       <c r="N1116" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O1116" s="2">
         <v>1100</v>
@@ -43232,7 +43228,7 @@
       <c r="L1117" s="2"/>
       <c r="M1117" s="2"/>
       <c r="N1117" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O1117" s="2">
         <v>1024</v>
@@ -43270,7 +43266,7 @@
       <c r="L1118" s="2"/>
       <c r="M1118" s="2"/>
       <c r="N1118" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O1118" s="2">
         <v>2025</v>
@@ -43334,7 +43330,7 @@
       <c r="L1120" s="2"/>
       <c r="M1120" s="2"/>
       <c r="N1120" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O1120" s="2">
         <v>542.4</v>
@@ -43368,7 +43364,7 @@
       <c r="L1121" s="2"/>
       <c r="M1121" s="2"/>
       <c r="N1121" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O1121" s="2">
         <v>610</v>
@@ -43402,7 +43398,7 @@
       <c r="L1122" s="2"/>
       <c r="M1122" s="2"/>
       <c r="N1122" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O1122" s="2">
         <v>217.9</v>
@@ -43436,7 +43432,7 @@
       <c r="L1123" s="2"/>
       <c r="M1123" s="2"/>
       <c r="N1123" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O1123" s="2">
         <v>332.5</v>
@@ -43470,7 +43466,7 @@
       <c r="L1124" s="2"/>
       <c r="M1124" s="2"/>
       <c r="N1124" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O1124" s="2">
         <v>290</v>
@@ -43538,7 +43534,7 @@
       <c r="L1126" s="2"/>
       <c r="M1126" s="2"/>
       <c r="N1126" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O1126" s="2">
         <v>945</v>
@@ -43576,7 +43572,7 @@
       <c r="L1127" s="2"/>
       <c r="M1127" s="2"/>
       <c r="N1127" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="O1127" s="2">
         <v>1585</v>
@@ -43612,7 +43608,7 @@
       <c r="L1128" s="2"/>
       <c r="M1128" s="2"/>
       <c r="N1128" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O1128" s="2">
         <v>657</v>
@@ -43646,7 +43642,7 @@
       <c r="L1129" s="2"/>
       <c r="M1129" s="2"/>
       <c r="N1129" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O1129" s="2">
         <v>875</v>
@@ -43682,7 +43678,7 @@
       <c r="L1130" s="2"/>
       <c r="M1130" s="2"/>
       <c r="N1130" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O1130" s="2">
         <v>490</v>
@@ -43722,7 +43718,7 @@
       <c r="L1131" s="2"/>
       <c r="M1131" s="2"/>
       <c r="N1131" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O1131" s="2">
         <v>199.9</v>
@@ -43762,7 +43758,7 @@
       <c r="L1132" s="2"/>
       <c r="M1132" s="2"/>
       <c r="N1132" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O1132" s="2">
         <v>272.85000000000002</v>
@@ -43802,14 +43798,14 @@
       <c r="L1133" s="2"/>
       <c r="M1133" s="2"/>
       <c r="N1133" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O1133" s="2">
         <v>0</v>
       </c>
       <c r="P1133" s="2"/>
       <c r="Q1133" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="R1133" s="3">
         <v>45463</v>
@@ -43840,7 +43836,7 @@
       <c r="L1134" s="2"/>
       <c r="M1134" s="2"/>
       <c r="N1134" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O1134" s="2">
         <v>776</v>
@@ -43874,7 +43870,7 @@
       <c r="L1135" s="2"/>
       <c r="M1135" s="2"/>
       <c r="N1135" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O1135" s="2">
         <v>1841</v>
@@ -43936,7 +43932,7 @@
       <c r="L1137" s="2"/>
       <c r="M1137" s="2"/>
       <c r="N1137" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O1137" s="2">
         <v>265.89999999999998</v>
@@ -43970,7 +43966,7 @@
       <c r="L1138" s="2"/>
       <c r="M1138" s="2"/>
       <c r="N1138" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O1138" s="2">
         <v>535.5</v>
@@ -44004,7 +44000,7 @@
       <c r="L1139" s="2"/>
       <c r="M1139" s="2"/>
       <c r="N1139" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1139" s="2">
         <v>354</v>
@@ -44038,14 +44034,14 @@
       <c r="L1140" s="2"/>
       <c r="M1140" s="2"/>
       <c r="N1140" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O1140" s="2">
         <v>0</v>
       </c>
       <c r="P1140" s="2"/>
       <c r="Q1140" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R1140" s="3">
         <v>45463</v>
@@ -44074,7 +44070,7 @@
       <c r="L1141" s="2"/>
       <c r="M1141" s="2"/>
       <c r="N1141" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O1141" s="2">
         <v>565</v>
@@ -44108,7 +44104,7 @@
       <c r="L1142" s="2"/>
       <c r="M1142" s="2"/>
       <c r="N1142" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O1142" s="2">
         <v>200</v>
@@ -44142,7 +44138,7 @@
       <c r="L1143" s="2"/>
       <c r="M1143" s="2"/>
       <c r="N1143" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O1143" s="2">
         <v>306</v>
@@ -44176,7 +44172,7 @@
       <c r="L1144" s="2"/>
       <c r="M1144" s="2"/>
       <c r="N1144" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O1144" s="2">
         <v>527</v>
@@ -44238,7 +44234,7 @@
       <c r="L1146" s="2"/>
       <c r="M1146" s="2"/>
       <c r="N1146" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O1146" s="2">
         <v>508</v>
@@ -44274,7 +44270,7 @@
       <c r="L1147" s="2"/>
       <c r="M1147" s="2"/>
       <c r="N1147" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O1147" s="2">
         <v>3300</v>
@@ -44283,7 +44279,7 @@
         <v>214</v>
       </c>
       <c r="Q1147" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R1147" s="3">
         <v>45463</v>
@@ -44314,7 +44310,7 @@
       <c r="L1148" s="2"/>
       <c r="M1148" s="2"/>
       <c r="N1148" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O1148" s="2">
         <v>250</v>
@@ -44323,7 +44319,7 @@
         <v>214</v>
       </c>
       <c r="Q1148" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R1148" s="3">
         <v>45463</v>
@@ -44408,7 +44404,7 @@
       <c r="L1151" s="2"/>
       <c r="M1151" s="2"/>
       <c r="N1151" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O1151" s="2">
         <v>0</v>
@@ -44444,7 +44440,7 @@
       <c r="L1152" s="2"/>
       <c r="M1152" s="2"/>
       <c r="N1152" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O1152" s="2">
         <v>0</v>
@@ -44480,14 +44476,14 @@
       <c r="L1153" s="2"/>
       <c r="M1153" s="2"/>
       <c r="N1153" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O1153" s="2">
         <v>0</v>
       </c>
       <c r="P1153" s="2"/>
       <c r="Q1153" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R1153" s="3">
         <v>45463</v>
@@ -44518,7 +44514,7 @@
       <c r="L1154" s="2"/>
       <c r="M1154" s="2"/>
       <c r="N1154" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O1154" s="2">
         <v>350</v>
@@ -44527,7 +44523,7 @@
         <v>214</v>
       </c>
       <c r="Q1154" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R1154" s="3">
         <v>45463</v>
@@ -44590,7 +44586,7 @@
       <c r="L1156" s="2"/>
       <c r="M1156" s="2"/>
       <c r="N1156" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O1156" s="2">
         <v>427</v>
@@ -44624,7 +44620,7 @@
       <c r="L1157" s="2"/>
       <c r="M1157" s="2"/>
       <c r="N1157" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O1157" s="2">
         <v>205</v>
@@ -44662,7 +44658,7 @@
       <c r="L1158" s="2"/>
       <c r="M1158" s="2"/>
       <c r="N1158" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O1158" s="2">
         <v>2150</v>
@@ -44726,14 +44722,14 @@
       <c r="L1160" s="2"/>
       <c r="M1160" s="2"/>
       <c r="N1160" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O1160" s="2">
         <v>1861.19</v>
       </c>
       <c r="P1160" s="2"/>
       <c r="Q1160" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R1160" s="3">
         <v>45463</v>
@@ -44750,7 +44746,7 @@
         <v>58</v>
       </c>
       <c r="D1161" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E1161" s="2"/>
       <c r="F1161" s="2">
@@ -44764,7 +44760,7 @@
       <c r="L1161" s="2"/>
       <c r="M1161" s="2"/>
       <c r="N1161" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O1161" s="2">
         <v>4084.62</v>
@@ -44786,7 +44782,7 @@
         <v>58</v>
       </c>
       <c r="D1162" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E1162" s="2"/>
       <c r="F1162" s="2">
@@ -44800,14 +44796,14 @@
       <c r="L1162" s="2"/>
       <c r="M1162" s="2"/>
       <c r="N1162" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O1162" s="2">
         <v>0</v>
       </c>
       <c r="P1162" s="2"/>
       <c r="Q1162" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R1162" s="3">
         <v>45463</v>
@@ -44880,7 +44876,7 @@
         <v>61</v>
       </c>
       <c r="D1165" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E1165" s="2"/>
       <c r="F1165" s="2">
@@ -44894,7 +44890,7 @@
       <c r="L1165" s="2"/>
       <c r="M1165" s="2"/>
       <c r="N1165" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O1165" s="2">
         <v>3306.89</v>
@@ -44916,7 +44912,7 @@
         <v>61</v>
       </c>
       <c r="D1166" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E1166" s="2"/>
       <c r="F1166" s="2">
@@ -44930,14 +44926,14 @@
       <c r="L1166" s="2"/>
       <c r="M1166" s="2"/>
       <c r="N1166" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O1166" s="2">
         <v>0</v>
       </c>
       <c r="P1166" s="2"/>
       <c r="Q1166" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R1166" s="3">
         <v>45463</v>
@@ -44966,7 +44962,7 @@
       <c r="L1167" s="2"/>
       <c r="M1167" s="2"/>
       <c r="N1167" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O1167" s="2">
         <v>681.9</v>
@@ -45030,7 +45026,7 @@
       <c r="L1169" s="2"/>
       <c r="M1169" s="2"/>
       <c r="N1169" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O1169" s="2">
         <v>452.1</v>
@@ -45064,7 +45060,7 @@
       <c r="L1170" s="2"/>
       <c r="M1170" s="2"/>
       <c r="N1170" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O1170" s="2">
         <v>819</v>
@@ -45100,7 +45096,7 @@
       <c r="L1171" s="2"/>
       <c r="M1171" s="2"/>
       <c r="N1171" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="O1171" s="2">
         <v>416.35</v>
@@ -45136,14 +45132,14 @@
       <c r="L1172" s="2"/>
       <c r="M1172" s="2"/>
       <c r="N1172" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O1172" s="2">
         <v>1254.3</v>
       </c>
       <c r="P1172" s="2"/>
       <c r="Q1172" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R1172" s="3">
         <v>45463</v>
@@ -45172,7 +45168,7 @@
       <c r="L1173" s="2"/>
       <c r="M1173" s="2"/>
       <c r="N1173" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O1173" s="2">
         <v>445</v>
@@ -45208,7 +45204,7 @@
       <c r="L1174" s="2"/>
       <c r="M1174" s="2"/>
       <c r="N1174" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O1174" s="2">
         <v>1318.3</v>
@@ -45246,14 +45242,14 @@
       <c r="L1175" s="2"/>
       <c r="M1175" s="2"/>
       <c r="N1175" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O1175" s="2">
         <v>453</v>
       </c>
       <c r="P1175" s="2"/>
       <c r="Q1175" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R1175" s="3">
         <v>45463</v>
@@ -45396,14 +45392,14 @@
       <c r="L1180" s="2"/>
       <c r="M1180" s="2"/>
       <c r="N1180" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O1180" s="2">
         <v>0</v>
       </c>
       <c r="P1180" s="2"/>
       <c r="Q1180" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="R1180" s="3">
         <v>45463</v>
@@ -45434,7 +45430,7 @@
       <c r="L1181" s="2"/>
       <c r="M1181" s="2"/>
       <c r="N1181" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="O1181" s="2">
         <v>1035.5</v>
@@ -45470,7 +45466,7 @@
       <c r="L1182" s="2"/>
       <c r="M1182" s="2"/>
       <c r="N1182" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O1182" s="2">
         <v>598</v>
@@ -45504,7 +45500,7 @@
       <c r="L1183" s="2"/>
       <c r="M1183" s="2"/>
       <c r="N1183" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O1183" s="2">
         <v>455</v>
@@ -45540,14 +45536,14 @@
       <c r="L1184" s="2"/>
       <c r="M1184" s="2"/>
       <c r="N1184" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O1184" s="2">
         <v>0</v>
       </c>
       <c r="P1184" s="2"/>
       <c r="Q1184" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="R1184" s="3">
         <v>45463</v>
@@ -45578,14 +45574,14 @@
       <c r="L1185" s="2"/>
       <c r="M1185" s="2"/>
       <c r="N1185" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="O1185" s="2">
         <v>0</v>
       </c>
       <c r="P1185" s="2"/>
       <c r="Q1185" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R1185" s="3">
         <v>45463</v>
@@ -45616,7 +45612,7 @@
       <c r="L1186" s="2"/>
       <c r="M1186" s="2"/>
       <c r="N1186" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O1186" s="2">
         <v>226</v>
@@ -45652,7 +45648,7 @@
       <c r="L1187" s="2"/>
       <c r="M1187" s="2"/>
       <c r="N1187" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O1187" s="2">
         <v>50.4</v>
@@ -45688,14 +45684,14 @@
       <c r="L1188" s="2"/>
       <c r="M1188" s="2"/>
       <c r="N1188" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="O1188" s="2">
         <v>10</v>
       </c>
       <c r="P1188" s="2"/>
       <c r="Q1188" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R1188" s="3">
         <v>45463</v>
@@ -45726,14 +45722,14 @@
       <c r="L1189" s="2"/>
       <c r="M1189" s="2"/>
       <c r="N1189" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O1189" s="2">
         <v>10</v>
       </c>
       <c r="P1189" s="2"/>
       <c r="Q1189" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R1189" s="3">
         <v>45463</v>
@@ -45764,7 +45760,7 @@
       <c r="L1190" s="2"/>
       <c r="M1190" s="2"/>
       <c r="N1190" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O1190" s="2">
         <v>381.7</v>
@@ -45800,7 +45796,7 @@
       <c r="L1191" s="2"/>
       <c r="M1191" s="2"/>
       <c r="N1191" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O1191" s="2">
         <v>100.8</v>
@@ -45838,14 +45834,14 @@
       <c r="L1192" s="2"/>
       <c r="M1192" s="2"/>
       <c r="N1192" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="O1192" s="2">
         <v>50</v>
       </c>
       <c r="P1192" s="2"/>
       <c r="Q1192" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R1192" s="3">
         <v>45463</v>
@@ -45880,7 +45876,7 @@
       <c r="L1193" s="2"/>
       <c r="M1193" s="2"/>
       <c r="N1193" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="O1193" s="2">
         <v>191.36</v>
@@ -45918,7 +45914,7 @@
       <c r="L1194" s="2"/>
       <c r="M1194" s="2"/>
       <c r="N1194" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="O1194" s="2">
         <v>633.91</v>
@@ -45952,7 +45948,7 @@
       <c r="L1195" s="2"/>
       <c r="M1195" s="2"/>
       <c r="N1195" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="O1195" s="2">
         <v>2415</v>
@@ -45992,7 +45988,7 @@
       <c r="L1196" s="2"/>
       <c r="M1196" s="2"/>
       <c r="N1196" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="O1196" s="2">
         <v>4738.4399999999996</v>
@@ -46054,14 +46050,14 @@
       <c r="L1198" s="2"/>
       <c r="M1198" s="2"/>
       <c r="N1198" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="O1198" s="2">
         <v>0</v>
       </c>
       <c r="P1198" s="2"/>
       <c r="Q1198" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="R1198" s="3">
         <v>45463</v>
@@ -46118,7 +46114,7 @@
       <c r="L1200" s="2"/>
       <c r="M1200" s="2"/>
       <c r="N1200" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O1200" s="2">
         <v>1947</v>
@@ -46152,7 +46148,7 @@
       <c r="L1201" s="2"/>
       <c r="M1201" s="2"/>
       <c r="N1201" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O1201" s="2">
         <v>626</v>
@@ -46186,7 +46182,7 @@
       <c r="L1202" s="2"/>
       <c r="M1202" s="2"/>
       <c r="N1202" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="O1202" s="2">
         <v>4480</v>
@@ -46222,14 +46218,14 @@
       <c r="L1203" s="2"/>
       <c r="M1203" s="2"/>
       <c r="N1203" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="O1203" s="2">
         <v>0</v>
       </c>
       <c r="P1203" s="2"/>
       <c r="Q1203" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="R1203" s="3">
         <v>45463</v>
@@ -46262,7 +46258,7 @@
       <c r="L1204" s="2"/>
       <c r="M1204" s="2"/>
       <c r="N1204" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O1204" s="2">
         <v>0</v>
@@ -46298,7 +46294,7 @@
       <c r="L1205" s="2"/>
       <c r="M1205" s="2"/>
       <c r="N1205" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O1205" s="2">
         <v>695</v>
@@ -46332,7 +46328,7 @@
       <c r="L1206" s="2"/>
       <c r="M1206" s="2"/>
       <c r="N1206" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O1206" s="2">
         <v>150.19999999999999</v>
@@ -46368,7 +46364,7 @@
       <c r="L1207" s="2"/>
       <c r="M1207" s="2"/>
       <c r="N1207" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O1207" s="2">
         <v>2290</v>
@@ -46402,7 +46398,7 @@
       <c r="L1208" s="2"/>
       <c r="M1208" s="2"/>
       <c r="N1208" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O1208" s="2">
         <v>775</v>
@@ -46588,7 +46584,7 @@
       <c r="L1214" s="2"/>
       <c r="M1214" s="2"/>
       <c r="N1214" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O1214" s="2">
         <v>2155</v>
@@ -46622,7 +46618,7 @@
       <c r="L1215" s="2"/>
       <c r="M1215" s="2"/>
       <c r="N1215" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="O1215" s="2">
         <v>311.7</v>
@@ -46658,14 +46654,14 @@
       <c r="L1216" s="2"/>
       <c r="M1216" s="2"/>
       <c r="N1216" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O1216" s="2">
         <v>116.2</v>
       </c>
       <c r="P1216" s="2"/>
       <c r="Q1216" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R1216" s="3">
         <v>45463</v>
@@ -46724,7 +46720,7 @@
       <c r="L1218" s="2"/>
       <c r="M1218" s="2"/>
       <c r="N1218" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O1218" s="2">
         <v>0</v>
@@ -46788,7 +46784,7 @@
       <c r="L1220" s="2"/>
       <c r="M1220" s="2"/>
       <c r="N1220" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O1220" s="2">
         <v>450</v>
@@ -46852,14 +46848,14 @@
       <c r="L1222" s="2"/>
       <c r="M1222" s="2"/>
       <c r="N1222" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O1222" s="2">
         <v>314.7</v>
       </c>
       <c r="P1222" s="2"/>
       <c r="Q1222" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R1222" s="3">
         <v>45463</v>
@@ -46888,7 +46884,7 @@
       <c r="L1223" s="2"/>
       <c r="M1223" s="2"/>
       <c r="N1223" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O1223" s="2">
         <v>600</v>
@@ -46922,7 +46918,7 @@
       <c r="L1224" s="2"/>
       <c r="M1224" s="2"/>
       <c r="N1224" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O1224" s="2">
         <v>800</v>
@@ -46956,14 +46952,14 @@
       <c r="L1225" s="2"/>
       <c r="M1225" s="2"/>
       <c r="N1225" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O1225" s="2">
         <v>0</v>
       </c>
       <c r="P1225" s="2"/>
       <c r="Q1225" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R1225" s="3">
         <v>45463</v>
@@ -46992,14 +46988,14 @@
       <c r="L1226" s="2"/>
       <c r="M1226" s="2"/>
       <c r="N1226" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="O1226" s="2">
         <v>0</v>
       </c>
       <c r="P1226" s="2"/>
       <c r="Q1226" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R1226" s="3">
         <v>45463</v>
@@ -47028,7 +47024,7 @@
       <c r="L1227" s="2"/>
       <c r="M1227" s="2"/>
       <c r="N1227" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O1227" s="2">
         <v>810</v>
@@ -47062,7 +47058,7 @@
       <c r="L1228" s="2"/>
       <c r="M1228" s="2"/>
       <c r="N1228" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O1228" s="2">
         <v>0</v>
@@ -47098,7 +47094,7 @@
       <c r="L1229" s="2"/>
       <c r="M1229" s="2"/>
       <c r="N1229" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="O1229" s="2">
         <v>0</v>
@@ -47134,7 +47130,7 @@
       <c r="L1230" s="2"/>
       <c r="M1230" s="2"/>
       <c r="N1230" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O1230" s="2">
         <v>0</v>
@@ -47170,7 +47166,7 @@
       <c r="L1231" s="2"/>
       <c r="M1231" s="2"/>
       <c r="N1231" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O1231" s="2">
         <v>0</v>
@@ -47234,7 +47230,7 @@
       <c r="L1233" s="2"/>
       <c r="M1233" s="2"/>
       <c r="N1233" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O1233" s="2">
         <v>1175</v>
@@ -47268,14 +47264,14 @@
       <c r="L1234" s="2"/>
       <c r="M1234" s="2"/>
       <c r="N1234" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="O1234" s="2">
         <v>0</v>
       </c>
       <c r="P1234" s="2"/>
       <c r="Q1234" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="R1234" s="3">
         <v>45463</v>
@@ -47370,7 +47366,7 @@
       <c r="L1237" s="2"/>
       <c r="M1237" s="2"/>
       <c r="N1237" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O1237" s="2">
         <v>455</v>
@@ -47406,7 +47402,7 @@
       <c r="L1238" s="2"/>
       <c r="M1238" s="2"/>
       <c r="N1238" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O1238" s="2">
         <v>630.9</v>
@@ -47442,7 +47438,7 @@
       <c r="L1239" s="2"/>
       <c r="M1239" s="2"/>
       <c r="N1239" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O1239" s="2">
         <v>1957.75</v>
@@ -47476,14 +47472,14 @@
       <c r="L1240" s="2"/>
       <c r="M1240" s="2"/>
       <c r="N1240" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O1240" s="2">
         <v>0</v>
       </c>
       <c r="P1240" s="2"/>
       <c r="Q1240" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="R1240" s="3">
         <v>45463</v>
@@ -47512,7 +47508,7 @@
       <c r="L1241" s="2"/>
       <c r="M1241" s="2"/>
       <c r="N1241" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O1241" s="2">
         <v>850</v>
@@ -47576,14 +47572,14 @@
       <c r="L1243" s="2"/>
       <c r="M1243" s="2"/>
       <c r="N1243" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="O1243" s="2">
         <v>0</v>
       </c>
       <c r="P1243" s="2"/>
       <c r="Q1243" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R1243" s="3">
         <v>45463</v>
@@ -47670,14 +47666,14 @@
       <c r="L1246" s="2"/>
       <c r="M1246" s="2"/>
       <c r="N1246" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O1246" s="2">
         <v>1804.75</v>
       </c>
       <c r="P1246" s="2"/>
       <c r="Q1246" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R1246" s="3">
         <v>45463</v>
@@ -47846,7 +47842,7 @@
       <c r="L1252" s="2"/>
       <c r="M1252" s="2"/>
       <c r="N1252" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O1252" s="2">
         <v>2589</v>
@@ -47880,14 +47876,14 @@
       <c r="L1253" s="2"/>
       <c r="M1253" s="2"/>
       <c r="N1253" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O1253" s="2">
         <v>1805.74</v>
       </c>
       <c r="P1253" s="2"/>
       <c r="Q1253" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="R1253" s="3">
         <v>45463</v>
@@ -47916,14 +47912,14 @@
       <c r="L1254" s="2"/>
       <c r="M1254" s="2"/>
       <c r="N1254" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O1254" s="2">
         <v>1901.5</v>
       </c>
       <c r="P1254" s="2"/>
       <c r="Q1254" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="R1254" s="3">
         <v>45463</v>
@@ -47954,7 +47950,7 @@
       <c r="L1255" s="2"/>
       <c r="M1255" s="2"/>
       <c r="N1255" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O1255" s="2">
         <v>1985</v>
@@ -47963,7 +47959,7 @@
         <v>214</v>
       </c>
       <c r="Q1255" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="R1255" s="3">
         <v>45463</v>
@@ -47994,14 +47990,14 @@
       <c r="L1256" s="2"/>
       <c r="M1256" s="2"/>
       <c r="N1256" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O1256" s="2">
         <v>0</v>
       </c>
       <c r="P1256" s="2"/>
       <c r="Q1256" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="R1256" s="3">
         <v>45463</v>
@@ -48032,14 +48028,14 @@
       <c r="L1257" s="2"/>
       <c r="M1257" s="2"/>
       <c r="N1257" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O1257" s="2">
         <v>0</v>
       </c>
       <c r="P1257" s="2"/>
       <c r="Q1257" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="R1257" s="3">
         <v>45463</v>
@@ -48070,14 +48066,14 @@
       <c r="L1258" s="2"/>
       <c r="M1258" s="2"/>
       <c r="N1258" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O1258" s="2">
         <v>0</v>
       </c>
       <c r="P1258" s="2"/>
       <c r="Q1258" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="R1258" s="3">
         <v>45463</v>
@@ -48106,7 +48102,7 @@
       <c r="L1259" s="2"/>
       <c r="M1259" s="2"/>
       <c r="N1259" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="O1259" s="2">
         <v>210</v>
@@ -48142,7 +48138,7 @@
       <c r="L1260" s="2"/>
       <c r="M1260" s="2"/>
       <c r="N1260" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="O1260" s="2">
         <v>2641.65</v>
@@ -48178,7 +48174,7 @@
       <c r="L1261" s="2"/>
       <c r="M1261" s="2"/>
       <c r="N1261" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="O1261" s="2">
         <v>1140</v>
@@ -48216,7 +48212,7 @@
       <c r="L1262" s="2"/>
       <c r="M1262" s="2"/>
       <c r="N1262" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O1262" s="2">
         <v>910</v>
@@ -48250,7 +48246,7 @@
       <c r="L1263" s="2"/>
       <c r="M1263" s="2"/>
       <c r="N1263" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O1263" s="2">
         <v>500</v>
@@ -48286,7 +48282,7 @@
       <c r="L1264" s="2"/>
       <c r="M1264" s="2"/>
       <c r="N1264" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O1264" s="2">
         <v>190.2</v>
@@ -48320,7 +48316,7 @@
       <c r="L1265" s="2"/>
       <c r="M1265" s="2"/>
       <c r="N1265" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O1265" s="2">
         <v>153</v>
@@ -48354,7 +48350,7 @@
       <c r="L1266" s="2"/>
       <c r="M1266" s="2"/>
       <c r="N1266" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O1266" s="2">
         <v>65</v>
@@ -48427,7 +48423,7 @@
       </c>
       <c r="P1268" s="2"/>
       <c r="Q1268" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="R1268" s="3">
         <v>45463</v>
@@ -48492,7 +48488,7 @@
       <c r="L1270" s="2"/>
       <c r="M1270" s="2"/>
       <c r="N1270" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O1270" s="2">
         <v>140</v>
@@ -48528,7 +48524,7 @@
       <c r="L1271" s="2"/>
       <c r="M1271" s="2"/>
       <c r="N1271" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O1271" s="2">
         <v>140</v>
@@ -48564,7 +48560,7 @@
       <c r="L1272" s="2"/>
       <c r="M1272" s="2"/>
       <c r="N1272" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O1272" s="2">
         <v>145</v>
@@ -48718,7 +48714,7 @@
       <c r="L1277" s="2"/>
       <c r="M1277" s="2"/>
       <c r="N1277" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="O1277" s="2">
         <v>1060</v>
@@ -48780,7 +48776,7 @@
       <c r="L1279" s="2"/>
       <c r="M1279" s="2"/>
       <c r="N1279" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="O1279" s="2">
         <v>0</v>
@@ -48844,7 +48840,7 @@
       <c r="L1281" s="2"/>
       <c r="M1281" s="2"/>
       <c r="N1281" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O1281" s="2">
         <v>1630</v>
@@ -48853,7 +48849,7 @@
         <v>214</v>
       </c>
       <c r="Q1281" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="R1281" s="3">
         <v>45463</v>
@@ -48882,7 +48878,7 @@
       <c r="L1282" s="2"/>
       <c r="M1282" s="2"/>
       <c r="N1282" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O1282" s="2">
         <v>2070</v>
@@ -48920,7 +48916,7 @@
       <c r="L1283" s="2"/>
       <c r="M1283" s="2"/>
       <c r="N1283" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O1283" s="2">
         <v>267</v>
@@ -48956,7 +48952,7 @@
       <c r="L1284" s="2"/>
       <c r="M1284" s="2"/>
       <c r="N1284" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O1284" s="2">
         <v>110</v>
@@ -48965,7 +48961,7 @@
         <v>214</v>
       </c>
       <c r="Q1284" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R1284" s="3">
         <v>45463</v>
@@ -49022,7 +49018,7 @@
       <c r="L1286" s="2"/>
       <c r="M1286" s="2"/>
       <c r="N1286" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O1286" s="2">
         <v>105</v>
@@ -49058,7 +49054,7 @@
       <c r="L1287" s="2"/>
       <c r="M1287" s="2"/>
       <c r="N1287" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O1287" s="2">
         <v>240</v>
@@ -49094,7 +49090,7 @@
       <c r="L1288" s="2"/>
       <c r="M1288" s="2"/>
       <c r="N1288" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O1288" s="2">
         <v>135</v>
@@ -49158,7 +49154,7 @@
       <c r="L1290" s="2"/>
       <c r="M1290" s="2"/>
       <c r="N1290" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O1290" s="2">
         <v>400</v>
@@ -49222,7 +49218,7 @@
       <c r="L1292" s="2"/>
       <c r="M1292" s="2"/>
       <c r="N1292" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O1292" s="2">
         <v>150</v>
@@ -49355,7 +49351,7 @@
         <v>214</v>
       </c>
       <c r="Q1296" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="R1296" s="3">
         <v>45463</v>
@@ -49421,7 +49417,7 @@
         <v>214</v>
       </c>
       <c r="Q1298" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="R1298" s="3">
         <v>45463</v>
@@ -49450,7 +49446,7 @@
       <c r="L1299" s="2"/>
       <c r="M1299" s="2"/>
       <c r="N1299" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O1299" s="2">
         <v>314</v>
@@ -49484,14 +49480,14 @@
       <c r="L1300" s="2"/>
       <c r="M1300" s="2"/>
       <c r="N1300" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O1300" s="2">
         <v>443.9</v>
       </c>
       <c r="P1300" s="2"/>
       <c r="Q1300" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="R1300" s="3">
         <v>45463</v>
@@ -49522,14 +49518,14 @@
       <c r="L1301" s="2"/>
       <c r="M1301" s="2"/>
       <c r="N1301" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O1301" s="2">
         <v>750</v>
       </c>
       <c r="P1301" s="2"/>
       <c r="Q1301" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R1301" s="3">
         <v>45463</v>
@@ -49586,7 +49582,7 @@
       <c r="L1303" s="2"/>
       <c r="M1303" s="2"/>
       <c r="N1303" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O1303" s="2">
         <v>0</v>
@@ -49624,7 +49620,7 @@
       <c r="L1304" s="2"/>
       <c r="M1304" s="2"/>
       <c r="N1304" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O1304" s="2">
         <v>0</v>
@@ -49660,7 +49656,7 @@
       <c r="L1305" s="2"/>
       <c r="M1305" s="2"/>
       <c r="N1305" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O1305" s="2">
         <v>0</v>
@@ -49696,7 +49692,7 @@
       <c r="L1306" s="2"/>
       <c r="M1306" s="2"/>
       <c r="N1306" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O1306" s="2">
         <v>0</v>
